--- a/hertz_calculator.xlsx
+++ b/hertz_calculator.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="5316" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="5316" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Buy, Settle, Short" sheetId="1" r:id="rId1"/>
-    <sheet name="Buying &amp; Settling (less risk)" sheetId="2" r:id="rId2"/>
+    <sheet name="Buy, Settle, Short, Settle" sheetId="1" r:id="rId1"/>
+    <sheet name="Buying &amp; Settling" sheetId="2" r:id="rId2"/>
+    <sheet name="Simulator" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>USD @ Start</t>
   </si>
@@ -93,13 +94,46 @@
   <si>
     <t>This calculator is an estimator, not a guarantee.</t>
   </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Reference timestamp</t>
+  </si>
+  <si>
+    <t>(30.43 days)</t>
+  </si>
+  <si>
+    <t>(In HERTZ this is greater, but for simplicity set to 0)</t>
+  </si>
+  <si>
+    <t>BTS Value (USD cents)</t>
+  </si>
+  <si>
+    <t>Hertz Value (USD cents)</t>
+  </si>
+  <si>
+    <t>Settlement Value (BTS per HERTZ)</t>
+  </si>
+  <si>
+    <t>Min Collateral Ratio</t>
+  </si>
+  <si>
+    <t>Min collateral</t>
+  </si>
+  <si>
+    <t>Your Collateral Ratio</t>
+  </si>
+  <si>
+    <t>Your collateral ratio</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -328,7 +362,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -357,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -371,6 +405,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -389,6 +431,2649 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>HERTZ (USD/HERTZ)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Simulator!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87638.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175276.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262915.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350553.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>438192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525830.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>613468.80000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>701107.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>788745.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>876384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>964022.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1051660.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1139299.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1226937.6000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1314576</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1402214.3999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1489852.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1577491.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1665129.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1752768</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1840406.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1928044.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015683.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2103321.6000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2190960</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2278598.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2366236.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2453875.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2541513.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2629152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Simulator!$A$2:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>100.00011949071997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110.39558454088795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120.33683215379001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.38926261462368</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>137.15724127386972</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>143.30127018922195</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147.55282581475768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149.72609476841367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>149.72609476841367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>147.55282581475768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>143.30127018922192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>137.15724127386972</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>129.38926261462365</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>120.33683215379003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>110.39558454088795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89.604415459112047</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>79.663167846209987</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>70.610737385376353</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.842758726130256</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.698729810778062</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.447174185242318</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.273905231586326</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.273905231586326</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.447174185242339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.698729810778069</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62.842758726130278</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>70.610737385376325</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>79.663167846209987</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>89.604415459112047</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000020-A90A-4335-8B04-CF8B8D4E1F36}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="514200360"/>
+        <c:axId val="514202328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="514200360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Timestamp</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (secs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514202328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="514202328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>USD/HERTZ</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514200360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>HERTZ Settlement estimator</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Simulator!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Settlement Value (BTS per HERTZ)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Simulator!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87638.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175276.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262915.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350553.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>438192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525830.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>613468.80000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>701107.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>788745.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>876384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>964022.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1051660.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1139299.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1226937.6000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1314576</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1402214.3999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1489852.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1577491.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1665129.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1752768</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1840406.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1928044.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015683.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2103321.6000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2190960</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2278598.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2366236.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2453875.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2541513.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2629152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Simulator!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>11.764719940084703</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.836695876847436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.831819787791957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.703325297116326</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.410925985828058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.922363354357994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.214596243379965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.274575518305834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.099580082625124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.69710912922954</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.084344230444414</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.287212632694763</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.339099238620996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12.279268587121431</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.151069145544238</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8717243028823809</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.81011449472647</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.8554113966384804</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0425729544356015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3998790295979102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.9478466212492753</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.6984958160361057</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6549912251468815</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8116673564442509</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.154429982798006</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.6615097951468725</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.304530123694315</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.0498378624964584</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.860036443781758</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.695652173913043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-54CD-4AAD-82A0-95F771286BB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Simulator!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BTS Value (USD cents)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Simulator!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87638.399999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175276.79999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>262915.20000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350553.59999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>438192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>525830.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>613468.80000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>701107.19999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>788745.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>876384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>964022.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1051660.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1139299.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1226937.6000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1314576</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1402214.3999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1489852.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1577491.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1665129.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1752768</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1840406.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1928044.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015683.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2103321.6000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2190960</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2278598.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2366236.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2453875.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2541513.6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2629152</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Simulator!$E$2:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9999999999999893</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54CD-4AAD-82A0-95F771286BB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Collateral Ratio</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Simulator!$F$2:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7494738645254873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.551664232309109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4004202523612901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2902037069486116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2166407734059153</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.176690636664103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1686685333546687</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1922410174128717</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2484496686420403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3397874830395775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4703320883940081</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.6459177781709675</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8742884455895714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1650920068374795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.529415982025407</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.978275092338837</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.5190323194474757</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1483649599147965</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.8409157963655423</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.5361019435433922</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1332364404098554</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.5117997763867521</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5820035126146674</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.3351204906101319</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.8473448932359338</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.2340543595824505</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5982220923345372</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0063789421329883</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.4903303022438363</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0588283793292224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-54CD-4AAD-82A0-95F771286BB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="522170992"/>
+        <c:axId val="522170336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="522170992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522170336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="522170336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="522170992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>58271</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8F4637-54CA-445F-8FFB-DADA1DE2194A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20FC6967-4CD0-488B-99CB-6FA72D6730F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -691,7 +3376,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K4" activeCellId="1" sqref="K1 K4"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1599,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1642,15 +4327,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="22">
-        <f>A2/($G$3-$G$2)</f>
+        <f t="shared" ref="B2:B30" si="0">A2/($G$3-$G$2)</f>
         <v>2</v>
       </c>
       <c r="C2" s="22">
-        <f>($G$3+$G$2)*B2</f>
+        <f t="shared" ref="C2:C30" si="1">($G$3+$G$2)*B2</f>
         <v>3</v>
       </c>
       <c r="D2" s="26">
-        <f t="shared" ref="D2:D24" si="0">(C2/A2)*100</f>
+        <f t="shared" ref="D2:D24" si="2">(C2/A2)*100</f>
         <v>300</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -1669,15 +4354,15 @@
         <v>3</v>
       </c>
       <c r="B3" s="22">
-        <f>A3/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C3" s="22">
-        <f>($G$3+$G$2)*B3</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D3" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -1689,19 +4374,19 @@
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11">
-        <f t="shared" ref="A4:A30" si="1">C3</f>
+        <f t="shared" ref="A4:A30" si="3">C3</f>
         <v>9</v>
       </c>
       <c r="B4" s="22">
-        <f>A4/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C4" s="22">
-        <f>($G$3+$G$2)*B4</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D4" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="F4" s="13" t="s">
@@ -1714,37 +4399,37 @@
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B5" s="22">
-        <f>A5/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C5" s="22">
-        <f>($G$3+$G$2)*B5</f>
+        <f t="shared" si="1"/>
         <v>81</v>
       </c>
       <c r="D5" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B6" s="22">
-        <f>A6/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>162</v>
       </c>
       <c r="C6" s="22">
-        <f>($G$3+$G$2)*B6</f>
+        <f t="shared" si="1"/>
         <v>243</v>
       </c>
       <c r="D6" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="F6" s="15" t="s">
@@ -1756,19 +4441,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="B7" s="22">
-        <f>A7/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>486</v>
       </c>
       <c r="C7" s="22">
-        <f>($G$3+$G$2)*B7</f>
+        <f t="shared" si="1"/>
         <v>729</v>
       </c>
       <c r="D7" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -1781,19 +4466,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>729</v>
       </c>
       <c r="B8" s="22">
-        <f>A8/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>1458</v>
       </c>
       <c r="C8" s="22">
-        <f>($G$3+$G$2)*B8</f>
+        <f t="shared" si="1"/>
         <v>2187</v>
       </c>
       <c r="D8" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="F8" s="11" t="s">
@@ -1806,19 +4491,19 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2187</v>
       </c>
       <c r="B9" s="22">
-        <f>A9/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>4374</v>
       </c>
       <c r="C9" s="22">
-        <f>($G$3+$G$2)*B9</f>
+        <f t="shared" si="1"/>
         <v>6561</v>
       </c>
       <c r="D9" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -1831,19 +4516,19 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6561</v>
       </c>
       <c r="B10" s="22">
-        <f>A10/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>13122</v>
       </c>
       <c r="C10" s="22">
-        <f>($G$3+$G$2)*B10</f>
+        <f t="shared" si="1"/>
         <v>19683</v>
       </c>
       <c r="D10" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -1856,19 +4541,19 @@
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19683</v>
       </c>
       <c r="B11" s="22">
-        <f>A11/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>39366</v>
       </c>
       <c r="C11" s="22">
-        <f>($G$3+$G$2)*B11</f>
+        <f t="shared" si="1"/>
         <v>59049</v>
       </c>
       <c r="D11" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -1881,347 +4566,1197 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>59049</v>
       </c>
       <c r="B12" s="22">
-        <f>A12/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>118098</v>
       </c>
       <c r="C12" s="22">
-        <f>($G$3+$G$2)*B12</f>
+        <f t="shared" si="1"/>
         <v>177147</v>
       </c>
       <c r="D12" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>177147</v>
       </c>
       <c r="B13" s="22">
-        <f>A13/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>354294</v>
       </c>
       <c r="C13" s="22">
-        <f>($G$3+$G$2)*B13</f>
+        <f t="shared" si="1"/>
         <v>531441</v>
       </c>
       <c r="D13" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>531441</v>
       </c>
       <c r="B14" s="22">
-        <f>A14/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>1062882</v>
       </c>
       <c r="C14" s="22">
-        <f>($G$3+$G$2)*B14</f>
+        <f t="shared" si="1"/>
         <v>1594323</v>
       </c>
       <c r="D14" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1594323</v>
       </c>
       <c r="B15" s="22">
-        <f>A15/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>3188646</v>
       </c>
       <c r="C15" s="22">
-        <f>($G$3+$G$2)*B15</f>
+        <f t="shared" si="1"/>
         <v>4782969</v>
       </c>
       <c r="D15" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4782969</v>
       </c>
       <c r="B16" s="22">
-        <f>A16/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>9565938</v>
       </c>
       <c r="C16" s="22">
-        <f>($G$3+$G$2)*B16</f>
+        <f t="shared" si="1"/>
         <v>14348907</v>
       </c>
       <c r="D16" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14348907</v>
       </c>
       <c r="B17" s="22">
-        <f>A17/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>28697814</v>
       </c>
       <c r="C17" s="22">
-        <f>($G$3+$G$2)*B17</f>
+        <f t="shared" si="1"/>
         <v>43046721</v>
       </c>
       <c r="D17" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>43046721</v>
       </c>
       <c r="B18" s="22">
-        <f>A18/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>86093442</v>
       </c>
       <c r="C18" s="22">
-        <f>($G$3+$G$2)*B18</f>
+        <f t="shared" si="1"/>
         <v>129140163</v>
       </c>
       <c r="D18" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>129140163</v>
       </c>
       <c r="B19" s="22">
-        <f>A19/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>258280326</v>
       </c>
       <c r="C19" s="22">
-        <f>($G$3+$G$2)*B19</f>
+        <f t="shared" si="1"/>
         <v>387420489</v>
       </c>
       <c r="D19" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>387420489</v>
       </c>
       <c r="B20" s="22">
-        <f>A20/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>774840978</v>
       </c>
       <c r="C20" s="22">
-        <f>($G$3+$G$2)*B20</f>
+        <f t="shared" si="1"/>
         <v>1162261467</v>
       </c>
       <c r="D20" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1162261467</v>
       </c>
       <c r="B21" s="22">
-        <f>A21/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>2324522934</v>
       </c>
       <c r="C21" s="22">
-        <f>($G$3+$G$2)*B21</f>
+        <f t="shared" si="1"/>
         <v>3486784401</v>
       </c>
       <c r="D21" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3486784401</v>
       </c>
       <c r="B22" s="22">
-        <f>A22/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>6973568802</v>
       </c>
       <c r="C22" s="22">
-        <f>($G$3+$G$2)*B22</f>
+        <f t="shared" si="1"/>
         <v>10460353203</v>
       </c>
       <c r="D22" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10460353203</v>
       </c>
       <c r="B23" s="22">
-        <f>A23/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>20920706406</v>
       </c>
       <c r="C23" s="22">
-        <f>($G$3+$G$2)*B23</f>
+        <f t="shared" si="1"/>
         <v>31381059609</v>
       </c>
       <c r="D23" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31381059609</v>
       </c>
       <c r="B24" s="22">
-        <f>A24/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>62762119218</v>
       </c>
       <c r="C24" s="22">
-        <f>($G$3+$G$2)*B24</f>
+        <f t="shared" si="1"/>
         <v>94143178827</v>
       </c>
       <c r="D24" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94143178827</v>
       </c>
       <c r="B25" s="22">
-        <f>A25/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>188286357654</v>
       </c>
       <c r="C25" s="22">
-        <f>($G$3+$G$2)*B25</f>
+        <f t="shared" si="1"/>
         <v>282429536481</v>
       </c>
       <c r="D25" s="26">
-        <f t="shared" ref="D25:D30" si="2">(C25/A25)*100</f>
+        <f t="shared" ref="D25:D30" si="4">(C25/A25)*100</f>
         <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>282429536481</v>
       </c>
       <c r="B26" s="22">
-        <f>A26/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>564859072962</v>
       </c>
       <c r="C26" s="22">
-        <f>($G$3+$G$2)*B26</f>
+        <f t="shared" si="1"/>
         <v>847288609443</v>
       </c>
       <c r="D26" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>847288609443</v>
       </c>
       <c r="B27" s="22">
-        <f>A27/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>1694577218886</v>
       </c>
       <c r="C27" s="22">
-        <f>($G$3+$G$2)*B27</f>
+        <f t="shared" si="1"/>
         <v>2541865828329</v>
       </c>
       <c r="D27" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2541865828329</v>
       </c>
       <c r="B28" s="22">
-        <f>A28/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>5083731656658</v>
       </c>
       <c r="C28" s="22">
-        <f>($G$3+$G$2)*B28</f>
+        <f t="shared" si="1"/>
         <v>7625597484987</v>
       </c>
       <c r="D28" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7625597484987</v>
       </c>
       <c r="B29" s="22">
-        <f>A29/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>15251194969974</v>
       </c>
       <c r="C29" s="22">
-        <f>($G$3+$G$2)*B29</f>
+        <f t="shared" si="1"/>
         <v>22876792454961</v>
       </c>
       <c r="D29" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22876792454961</v>
       </c>
       <c r="B30" s="23">
-        <f>A30/($G$3-$G$2)</f>
+        <f t="shared" si="0"/>
         <v>45753584909922</v>
       </c>
       <c r="C30" s="23">
-        <f>($G$3+$G$2)*B30</f>
+        <f t="shared" si="1"/>
         <v>68630377364883</v>
       </c>
       <c r="D30" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D2 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>100.00011949071997</v>
+      </c>
+      <c r="B2" s="22">
+        <f>$A2/$E2</f>
+        <v>11.764719940084703</v>
+      </c>
+      <c r="C2" s="22">
+        <f>$B2*$I$6</f>
+        <v>20.58825989514823</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+      <c r="E2" s="22">
+        <v>8.5</v>
+      </c>
+      <c r="F2" s="24">
+        <f>$I$7</f>
+        <v>3</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D3 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>110.39558454088795</v>
+      </c>
+      <c r="B3" s="22">
+        <f>$A3/$E3</f>
+        <v>12.836695876847436</v>
+      </c>
+      <c r="C3" s="22">
+        <f t="shared" ref="C3:C32" si="0">$B3*$I$6</f>
+        <v>22.464217784483012</v>
+      </c>
+      <c r="D3" s="22">
+        <v>87638.399999999994</v>
+      </c>
+      <c r="E3" s="22">
+        <v>8.6</v>
+      </c>
+      <c r="F3" s="24">
+        <f>($B$2*$I$7)/$B3</f>
+        <v>2.7494738645254873</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D4 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>120.33683215379001</v>
+      </c>
+      <c r="B4" s="22">
+        <f>$A4/$E4</f>
+        <v>13.831819787791957</v>
+      </c>
+      <c r="C4" s="22">
+        <f t="shared" si="0"/>
+        <v>24.205684628635925</v>
+      </c>
+      <c r="D4" s="22">
+        <v>175276.79999999999</v>
+      </c>
+      <c r="E4" s="22">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F4" s="24">
+        <f t="shared" ref="F4:F32" si="1">($B$2*$I$7)/$B4</f>
+        <v>2.551664232309109</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="12">
+        <f>((30.43*60)*60)*24</f>
+        <v>2629152</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D5 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>129.38926261462368</v>
+      </c>
+      <c r="B5" s="22">
+        <f>$A5/$E5</f>
+        <v>14.703325297116326</v>
+      </c>
+      <c r="C5" s="22">
+        <f t="shared" si="0"/>
+        <v>25.730819269953571</v>
+      </c>
+      <c r="D5" s="22">
+        <v>262915.20000000001</v>
+      </c>
+      <c r="E5" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F5" s="24">
+        <f t="shared" si="1"/>
+        <v>2.4004202523612901</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="34">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D6 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>137.15724127386972</v>
+      </c>
+      <c r="B6" s="22">
+        <f>$A6/$E6</f>
+        <v>15.410925985828058</v>
+      </c>
+      <c r="C6" s="22">
+        <f t="shared" si="0"/>
+        <v>26.969120475199102</v>
+      </c>
+      <c r="D6" s="22">
+        <v>350553.59999999998</v>
+      </c>
+      <c r="E6" s="22">
+        <v>8.9</v>
+      </c>
+      <c r="F6" s="24">
+        <f t="shared" si="1"/>
+        <v>2.2902037069486116</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="34">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D7 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>143.30127018922195</v>
+      </c>
+      <c r="B7" s="22">
+        <f>$A7/$E7</f>
+        <v>15.922363354357994</v>
+      </c>
+      <c r="C7" s="22">
+        <f t="shared" si="0"/>
+        <v>27.864135870126489</v>
+      </c>
+      <c r="D7" s="22">
+        <v>438192</v>
+      </c>
+      <c r="E7" s="22">
+        <v>9</v>
+      </c>
+      <c r="F7" s="24">
+        <f t="shared" si="1"/>
+        <v>2.2166407734059153</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D8 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>147.55282581475768</v>
+      </c>
+      <c r="B8" s="22">
+        <f>$A8/$E8</f>
+        <v>16.214596243379965</v>
+      </c>
+      <c r="C8" s="22">
+        <f t="shared" si="0"/>
+        <v>28.375543425914941</v>
+      </c>
+      <c r="D8" s="22">
+        <v>525830.40000000002</v>
+      </c>
+      <c r="E8" s="22">
+        <v>9.1</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="1"/>
+        <v>2.176690636664103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D9 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>149.72609476841367</v>
+      </c>
+      <c r="B9" s="22">
+        <f>$A9/$E9</f>
+        <v>16.274575518305834</v>
+      </c>
+      <c r="C9" s="22">
+        <f t="shared" si="0"/>
+        <v>28.480507157035209</v>
+      </c>
+      <c r="D9" s="22">
+        <v>613468.80000000005</v>
+      </c>
+      <c r="E9" s="22">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F9" s="24">
+        <f t="shared" si="1"/>
+        <v>2.1686685333546687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D10 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>149.72609476841367</v>
+      </c>
+      <c r="B10" s="22">
+        <f>$A10/$E10</f>
+        <v>16.099580082625124</v>
+      </c>
+      <c r="C10" s="22">
+        <f t="shared" si="0"/>
+        <v>28.174265144593967</v>
+      </c>
+      <c r="D10" s="22">
+        <v>701107.19999999995</v>
+      </c>
+      <c r="E10" s="22">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F10" s="24">
+        <f t="shared" si="1"/>
+        <v>2.1922410174128717</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D11 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>147.55282581475768</v>
+      </c>
+      <c r="B11" s="22">
+        <f>$A11/$E11</f>
+        <v>15.69710912922954</v>
+      </c>
+      <c r="C11" s="22">
+        <f t="shared" si="0"/>
+        <v>27.469940976151694</v>
+      </c>
+      <c r="D11" s="22">
+        <v>788745.6</v>
+      </c>
+      <c r="E11" s="22">
+        <v>9.4</v>
+      </c>
+      <c r="F11" s="24">
+        <f t="shared" si="1"/>
+        <v>2.2484496686420403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D12 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>143.30127018922192</v>
+      </c>
+      <c r="B12" s="22">
+        <f>$A12/$E12</f>
+        <v>15.084344230444414</v>
+      </c>
+      <c r="C12" s="22">
+        <f t="shared" si="0"/>
+        <v>26.397602403277723</v>
+      </c>
+      <c r="D12" s="22">
+        <v>876384</v>
+      </c>
+      <c r="E12" s="22">
+        <v>9.5</v>
+      </c>
+      <c r="F12" s="24">
+        <f t="shared" si="1"/>
+        <v>2.3397874830395775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D13 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>137.15724127386972</v>
+      </c>
+      <c r="B13" s="22">
+        <f>$A13/$E13</f>
+        <v>14.287212632694763</v>
+      </c>
+      <c r="C13" s="22">
+        <f t="shared" si="0"/>
+        <v>25.002622107215835</v>
+      </c>
+      <c r="D13" s="22">
+        <v>964022.4</v>
+      </c>
+      <c r="E13" s="22">
+        <v>9.6</v>
+      </c>
+      <c r="F13" s="24">
+        <f t="shared" si="1"/>
+        <v>2.4703320883940081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D14 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>129.38926261462365</v>
+      </c>
+      <c r="B14" s="22">
+        <f>$A14/$E14</f>
+        <v>13.339099238620996</v>
+      </c>
+      <c r="C14" s="22">
+        <f t="shared" si="0"/>
+        <v>23.343423667586741</v>
+      </c>
+      <c r="D14" s="22">
+        <v>1051660.8</v>
+      </c>
+      <c r="E14" s="22">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F14" s="24">
+        <f t="shared" si="1"/>
+        <v>2.6459177781709675</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D15 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>120.33683215379003</v>
+      </c>
+      <c r="B15" s="22">
+        <f>$A15/$E15</f>
+        <v>12.279268587121431</v>
+      </c>
+      <c r="C15" s="22">
+        <f t="shared" si="0"/>
+        <v>21.488720027462502</v>
+      </c>
+      <c r="D15" s="22">
+        <v>1139299.2</v>
+      </c>
+      <c r="E15" s="22">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F15" s="24">
+        <f t="shared" si="1"/>
+        <v>2.8742884455895714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D16 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>110.39558454088795</v>
+      </c>
+      <c r="B16" s="22">
+        <f>$A16/$E16</f>
+        <v>11.151069145544238</v>
+      </c>
+      <c r="C16" s="22">
+        <f t="shared" si="0"/>
+        <v>19.514371004702415</v>
+      </c>
+      <c r="D16" s="22">
+        <v>1226937.6000000001</v>
+      </c>
+      <c r="E16" s="22">
+        <v>9.9</v>
+      </c>
+      <c r="F16" s="24">
+        <f t="shared" si="1"/>
+        <v>3.1650920068374795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D17 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>100</v>
+      </c>
+      <c r="B17" s="22">
+        <f>$A17/$E17</f>
+        <v>10.000000000000011</v>
+      </c>
+      <c r="C17" s="22">
+        <f t="shared" si="0"/>
+        <v>17.500000000000018</v>
+      </c>
+      <c r="D17" s="22">
+        <v>1314576</v>
+      </c>
+      <c r="E17" s="22">
+        <v>9.9999999999999893</v>
+      </c>
+      <c r="F17" s="24">
+        <f t="shared" si="1"/>
+        <v>3.529415982025407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D18 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>89.604415459112047</v>
+      </c>
+      <c r="B18" s="22">
+        <f>$A18/$E18</f>
+        <v>8.8717243028823809</v>
+      </c>
+      <c r="C18" s="22">
+        <f t="shared" si="0"/>
+        <v>15.525517530044166</v>
+      </c>
+      <c r="D18" s="22">
+        <v>1402214.3999999999</v>
+      </c>
+      <c r="E18" s="22">
+        <v>10.1</v>
+      </c>
+      <c r="F18" s="24">
+        <f t="shared" si="1"/>
+        <v>3.978275092338837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D19 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>79.663167846209987</v>
+      </c>
+      <c r="B19" s="22">
+        <f>$A19/$E19</f>
+        <v>7.81011449472647</v>
+      </c>
+      <c r="C19" s="22">
+        <f t="shared" si="0"/>
+        <v>13.667700365771323</v>
+      </c>
+      <c r="D19" s="22">
+        <v>1489852.8</v>
+      </c>
+      <c r="E19" s="22">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F19" s="24">
+        <f t="shared" si="1"/>
+        <v>4.5190323194474757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D20 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>70.610737385376353</v>
+      </c>
+      <c r="B20" s="22">
+        <f>$A20/$E20</f>
+        <v>6.8554113966384804</v>
+      </c>
+      <c r="C20" s="22">
+        <f t="shared" si="0"/>
+        <v>11.996969944117341</v>
+      </c>
+      <c r="D20" s="22">
+        <v>1577491.2</v>
+      </c>
+      <c r="E20" s="22">
+        <v>10.3</v>
+      </c>
+      <c r="F20" s="24">
+        <f t="shared" si="1"/>
+        <v>5.1483649599147965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D21 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>62.842758726130256</v>
+      </c>
+      <c r="B21" s="22">
+        <f>$A21/$E21</f>
+        <v>6.0425729544356015</v>
+      </c>
+      <c r="C21" s="22">
+        <f t="shared" si="0"/>
+        <v>10.574502670262303</v>
+      </c>
+      <c r="D21" s="22">
+        <v>1665129.6</v>
+      </c>
+      <c r="E21" s="22">
+        <v>10.4</v>
+      </c>
+      <c r="F21" s="24">
+        <f t="shared" si="1"/>
+        <v>5.8409157963655423</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D22 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>56.698729810778062</v>
+      </c>
+      <c r="B22" s="22">
+        <f>$A22/$E22</f>
+        <v>5.3998790295979102</v>
+      </c>
+      <c r="C22" s="22">
+        <f t="shared" si="0"/>
+        <v>9.4497883017963424</v>
+      </c>
+      <c r="D22" s="22">
+        <v>1752768</v>
+      </c>
+      <c r="E22" s="22">
+        <v>10.5</v>
+      </c>
+      <c r="F22" s="24">
+        <f t="shared" si="1"/>
+        <v>6.5361019435433922</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D23 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>52.447174185242318</v>
+      </c>
+      <c r="B23" s="22">
+        <f>$A23/$E23</f>
+        <v>4.9478466212492753</v>
+      </c>
+      <c r="C23" s="22">
+        <f t="shared" si="0"/>
+        <v>8.6587315871862316</v>
+      </c>
+      <c r="D23" s="22">
+        <v>1840406.4</v>
+      </c>
+      <c r="E23" s="22">
+        <v>10.6</v>
+      </c>
+      <c r="F23" s="24">
+        <f t="shared" si="1"/>
+        <v>7.1332364404098554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D24 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>50.273905231586326</v>
+      </c>
+      <c r="B24" s="22">
+        <f>$A24/$E24</f>
+        <v>4.6984958160361057</v>
+      </c>
+      <c r="C24" s="22">
+        <f t="shared" si="0"/>
+        <v>8.2223676780631845</v>
+      </c>
+      <c r="D24" s="22">
+        <v>1928044.8</v>
+      </c>
+      <c r="E24" s="22">
+        <v>10.7</v>
+      </c>
+      <c r="F24" s="24">
+        <f t="shared" si="1"/>
+        <v>7.5117997763867521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D25 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>50.273905231586326</v>
+      </c>
+      <c r="B25" s="22">
+        <f>$A25/$E25</f>
+        <v>4.6549912251468815</v>
+      </c>
+      <c r="C25" s="22">
+        <f t="shared" si="0"/>
+        <v>8.146234644007043</v>
+      </c>
+      <c r="D25" s="22">
+        <v>2015683.2</v>
+      </c>
+      <c r="E25" s="22">
+        <v>10.8</v>
+      </c>
+      <c r="F25" s="24">
+        <f t="shared" si="1"/>
+        <v>7.5820035126146674</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D26 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>52.447174185242339</v>
+      </c>
+      <c r="B26" s="22">
+        <f>$A26/$E26</f>
+        <v>4.8116673564442509</v>
+      </c>
+      <c r="C26" s="22">
+        <f t="shared" si="0"/>
+        <v>8.4204178737774384</v>
+      </c>
+      <c r="D26" s="22">
+        <v>2103321.6000000001</v>
+      </c>
+      <c r="E26" s="22">
+        <v>10.9</v>
+      </c>
+      <c r="F26" s="24">
+        <f t="shared" si="1"/>
+        <v>7.3351204906101319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D27 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>56.698729810778069</v>
+      </c>
+      <c r="B27" s="22">
+        <f>$A27/$E27</f>
+        <v>5.154429982798006</v>
+      </c>
+      <c r="C27" s="22">
+        <f t="shared" si="0"/>
+        <v>9.0202524698965103</v>
+      </c>
+      <c r="D27" s="22">
+        <v>2190960</v>
+      </c>
+      <c r="E27" s="22">
+        <v>11</v>
+      </c>
+      <c r="F27" s="24">
+        <f t="shared" si="1"/>
+        <v>6.8473448932359338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D28 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>62.842758726130278</v>
+      </c>
+      <c r="B28" s="22">
+        <f>$A28/$E28</f>
+        <v>5.6615097951468725</v>
+      </c>
+      <c r="C28" s="22">
+        <f t="shared" si="0"/>
+        <v>9.9076421415070275</v>
+      </c>
+      <c r="D28" s="22">
+        <v>2278598.4</v>
+      </c>
+      <c r="E28" s="22">
+        <v>11.1</v>
+      </c>
+      <c r="F28" s="24">
+        <f t="shared" si="1"/>
+        <v>6.2340543595824505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D29 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>70.610737385376325</v>
+      </c>
+      <c r="B29" s="22">
+        <f>$A29/$E29</f>
+        <v>6.304530123694315</v>
+      </c>
+      <c r="C29" s="22">
+        <f t="shared" si="0"/>
+        <v>11.032927716465052</v>
+      </c>
+      <c r="D29" s="22">
+        <v>2366236.7999999998</v>
+      </c>
+      <c r="E29" s="22">
+        <v>11.2</v>
+      </c>
+      <c r="F29" s="24">
+        <f t="shared" si="1"/>
+        <v>5.5982220923345372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D30 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>79.663167846209987</v>
+      </c>
+      <c r="B30" s="22">
+        <f>$A30/$E30</f>
+        <v>7.0498378624964584</v>
+      </c>
+      <c r="C30" s="22">
+        <f t="shared" si="0"/>
+        <v>12.337216259368802</v>
+      </c>
+      <c r="D30" s="22">
+        <v>2453875.2000000002</v>
+      </c>
+      <c r="E30" s="22">
+        <v>11.3</v>
+      </c>
+      <c r="F30" s="24">
+        <f t="shared" si="1"/>
+        <v>5.0063789421329883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D31 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>89.604415459112047</v>
+      </c>
+      <c r="B31" s="22">
+        <f>$A31/$E31</f>
+        <v>7.860036443781758</v>
+      </c>
+      <c r="C31" s="22">
+        <f t="shared" si="0"/>
+        <v>13.755063776618076</v>
+      </c>
+      <c r="D31" s="22">
+        <v>2541513.6</v>
+      </c>
+      <c r="E31" s="22">
+        <v>11.4</v>
+      </c>
+      <c r="F31" s="24">
+        <f t="shared" si="1"/>
+        <v>4.4903303022438363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="13">
+        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D32 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <v>100</v>
+      </c>
+      <c r="B32" s="23">
+        <f>$A32/$E32</f>
+        <v>8.695652173913043</v>
+      </c>
+      <c r="C32" s="23">
+        <f t="shared" si="0"/>
+        <v>15.217391304347824</v>
+      </c>
+      <c r="D32" s="23">
+        <v>2629152</v>
+      </c>
+      <c r="E32" s="23">
+        <v>11.5</v>
+      </c>
+      <c r="F32" s="35">
+        <f t="shared" si="1"/>
+        <v>4.0588283793292224</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F32">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1.75"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/hertz_calculator.xlsx
+++ b/hertz_calculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12540" windowHeight="5316" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9288" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Buy, Settle, Short, Settle" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>USD @ Start</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Your collateral ratio</t>
+  </si>
+  <si>
+    <t>MCR</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -412,7 +415,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -1689,6 +1693,133 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-54CD-4AAD-82A0-95F771286BB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MCR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Simulator!$G$2:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E57-496C-BB3F-8FB55D119A69}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3004,15 +3135,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>4482</xdr:rowOff>
+      <xdr:colOff>1394010</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>58271</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>138953</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3039,16 +3170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13448</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>174812</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>40341</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>591670</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4913,10 +5044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4926,10 +5057,11 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>27</v>
       </c>
@@ -4945,27 +5077,33 @@
       <c r="E1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D2 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D2 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>100.00011949071997</v>
       </c>
       <c r="B2" s="22">
-        <f>$A2/$E2</f>
+        <f t="shared" ref="B2:B32" si="0">$A2/$E2</f>
         <v>11.764719940084703</v>
       </c>
       <c r="C2" s="22">
-        <f>$B2*$I$6</f>
+        <f>$B2*$J$6</f>
         <v>20.58825989514823</v>
       </c>
       <c r="D2" s="22">
@@ -4974,28 +5112,32 @@
       <c r="E2" s="22">
         <v>8.5</v>
       </c>
-      <c r="F2" s="24">
-        <f>$I$7</f>
+      <c r="F2" s="35">
+        <f>$J$7</f>
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="12">
+        <f>$J$6</f>
+        <v>1.75</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D3 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D3 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>110.39558454088795</v>
       </c>
       <c r="B3" s="22">
-        <f>$A3/$E3</f>
+        <f t="shared" si="0"/>
         <v>12.836695876847436</v>
       </c>
       <c r="C3" s="22">
-        <f t="shared" ref="C3:C32" si="0">$B3*$I$6</f>
+        <f>$B3*$J$6</f>
         <v>22.464217784483012</v>
       </c>
       <c r="D3" s="22">
@@ -5004,28 +5146,32 @@
       <c r="E3" s="22">
         <v>8.6</v>
       </c>
-      <c r="F3" s="24">
-        <f>($B$2*$I$7)/$B3</f>
+      <c r="F3" s="35">
+        <f>($B$2*$J$7)/$B3</f>
         <v>2.7494738645254873</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="12">
+        <f t="shared" ref="G3:G32" si="1">$J$6</f>
+        <v>1.75</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="12">
+      <c r="J3" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D4 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D4 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>120.33683215379001</v>
       </c>
       <c r="B4" s="22">
-        <f>$A4/$E4</f>
+        <f t="shared" si="0"/>
         <v>13.831819787791957</v>
       </c>
       <c r="C4" s="22">
-        <f t="shared" si="0"/>
+        <f>$B4*$J$6</f>
         <v>24.205684628635925</v>
       </c>
       <c r="D4" s="22">
@@ -5034,32 +5180,36 @@
       <c r="E4" s="22">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F4" s="24">
-        <f t="shared" ref="F4:F32" si="1">($B$2*$I$7)/$B4</f>
+      <c r="F4" s="35">
+        <f>($B$2*$J$7)/$B4</f>
         <v>2.551664232309109</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12">
+      <c r="J4" s="12">
         <f>((30.43*60)*60)*24</f>
         <v>2629152</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D5 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D5 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>129.38926261462368</v>
       </c>
       <c r="B5" s="22">
-        <f>$A5/$E5</f>
+        <f t="shared" si="0"/>
         <v>14.703325297116326</v>
       </c>
       <c r="C5" s="22">
-        <f t="shared" si="0"/>
+        <f>$B5*$J$6</f>
         <v>25.730819269953571</v>
       </c>
       <c r="D5" s="22">
@@ -5068,31 +5218,35 @@
       <c r="E5" s="22">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F5" s="24">
-        <f t="shared" si="1"/>
+      <c r="F5" s="35">
+        <f>($B$2*$J$7)/$B5</f>
         <v>2.4004202523612901</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="I5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="34">
+      <c r="J5" s="34">
         <v>0</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D6 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D6 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>137.15724127386972</v>
       </c>
       <c r="B6" s="22">
-        <f>$A6/$E6</f>
+        <f t="shared" si="0"/>
         <v>15.410925985828058</v>
       </c>
       <c r="C6" s="22">
-        <f t="shared" si="0"/>
+        <f>$B6*$J$6</f>
         <v>26.969120475199102</v>
       </c>
       <c r="D6" s="22">
@@ -5101,28 +5255,32 @@
       <c r="E6" s="22">
         <v>8.9</v>
       </c>
-      <c r="F6" s="24">
-        <f t="shared" si="1"/>
+      <c r="F6" s="35">
+        <f>($B$2*$J$7)/$B6</f>
         <v>2.2902037069486116</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="I6" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="34">
+      <c r="J6" s="34">
         <v>1.75</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D7 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D7 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>143.30127018922195</v>
       </c>
       <c r="B7" s="22">
-        <f>$A7/$E7</f>
+        <f t="shared" si="0"/>
         <v>15.922363354357994</v>
       </c>
       <c r="C7" s="22">
-        <f t="shared" si="0"/>
+        <f>$B7*$J$6</f>
         <v>27.864135870126489</v>
       </c>
       <c r="D7" s="22">
@@ -5131,29 +5289,32 @@
       <c r="E7" s="22">
         <v>9</v>
       </c>
-      <c r="F7" s="24">
-        <f t="shared" si="1"/>
+      <c r="F7" s="35">
+        <f>($B$2*$J$7)/$B7</f>
         <v>2.2166407734059153</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="28" t="s">
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="I7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="29">
+      <c r="J7" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D8 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D8 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>147.55282581475768</v>
       </c>
       <c r="B8" s="22">
-        <f>$A8/$E8</f>
+        <f t="shared" si="0"/>
         <v>16.214596243379965</v>
       </c>
       <c r="C8" s="22">
-        <f t="shared" si="0"/>
+        <f>$B8*$J$6</f>
         <v>28.375543425914941</v>
       </c>
       <c r="D8" s="22">
@@ -5162,22 +5323,26 @@
       <c r="E8" s="22">
         <v>9.1</v>
       </c>
-      <c r="F8" s="24">
-        <f t="shared" si="1"/>
+      <c r="F8" s="35">
+        <f>($B$2*$J$7)/$B8</f>
         <v>2.176690636664103</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G8" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D9 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D9 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>149.72609476841367</v>
       </c>
       <c r="B9" s="22">
-        <f>$A9/$E9</f>
+        <f t="shared" si="0"/>
         <v>16.274575518305834</v>
       </c>
       <c r="C9" s="22">
-        <f t="shared" si="0"/>
+        <f>$B9*$J$6</f>
         <v>28.480507157035209</v>
       </c>
       <c r="D9" s="22">
@@ -5186,22 +5351,26 @@
       <c r="E9" s="22">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F9" s="24">
-        <f t="shared" si="1"/>
+      <c r="F9" s="35">
+        <f>($B$2*$J$7)/$B9</f>
         <v>2.1686685333546687</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G9" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D10 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D10 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>149.72609476841367</v>
       </c>
       <c r="B10" s="22">
-        <f>$A10/$E10</f>
+        <f t="shared" si="0"/>
         <v>16.099580082625124</v>
       </c>
       <c r="C10" s="22">
-        <f t="shared" si="0"/>
+        <f>$B10*$J$6</f>
         <v>28.174265144593967</v>
       </c>
       <c r="D10" s="22">
@@ -5210,22 +5379,26 @@
       <c r="E10" s="22">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F10" s="24">
-        <f t="shared" si="1"/>
+      <c r="F10" s="35">
+        <f>($B$2*$J$7)/$B10</f>
         <v>2.1922410174128717</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D11 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D11 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>147.55282581475768</v>
       </c>
       <c r="B11" s="22">
-        <f>$A11/$E11</f>
+        <f t="shared" si="0"/>
         <v>15.69710912922954</v>
       </c>
       <c r="C11" s="22">
-        <f t="shared" si="0"/>
+        <f>$B11*$J$6</f>
         <v>27.469940976151694</v>
       </c>
       <c r="D11" s="22">
@@ -5234,22 +5407,26 @@
       <c r="E11" s="22">
         <v>9.4</v>
       </c>
-      <c r="F11" s="24">
-        <f t="shared" si="1"/>
+      <c r="F11" s="35">
+        <f>($B$2*$J$7)/$B11</f>
         <v>2.2484496686420403</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G11" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D12 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D12 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>143.30127018922192</v>
       </c>
       <c r="B12" s="22">
-        <f>$A12/$E12</f>
+        <f t="shared" si="0"/>
         <v>15.084344230444414</v>
       </c>
       <c r="C12" s="22">
-        <f t="shared" si="0"/>
+        <f>$B12*$J$6</f>
         <v>26.397602403277723</v>
       </c>
       <c r="D12" s="22">
@@ -5258,22 +5435,26 @@
       <c r="E12" s="22">
         <v>9.5</v>
       </c>
-      <c r="F12" s="24">
-        <f t="shared" si="1"/>
+      <c r="F12" s="35">
+        <f>($B$2*$J$7)/$B12</f>
         <v>2.3397874830395775</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D13 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D13 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>137.15724127386972</v>
       </c>
       <c r="B13" s="22">
-        <f>$A13/$E13</f>
+        <f t="shared" si="0"/>
         <v>14.287212632694763</v>
       </c>
       <c r="C13" s="22">
-        <f t="shared" si="0"/>
+        <f>$B13*$J$6</f>
         <v>25.002622107215835</v>
       </c>
       <c r="D13" s="22">
@@ -5282,22 +5463,26 @@
       <c r="E13" s="22">
         <v>9.6</v>
       </c>
-      <c r="F13" s="24">
-        <f t="shared" si="1"/>
+      <c r="F13" s="35">
+        <f>($B$2*$J$7)/$B13</f>
         <v>2.4703320883940081</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G13" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D14 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D14 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>129.38926261462365</v>
       </c>
       <c r="B14" s="22">
-        <f>$A14/$E14</f>
+        <f t="shared" si="0"/>
         <v>13.339099238620996</v>
       </c>
       <c r="C14" s="22">
-        <f t="shared" si="0"/>
+        <f>$B14*$J$6</f>
         <v>23.343423667586741</v>
       </c>
       <c r="D14" s="22">
@@ -5306,22 +5491,26 @@
       <c r="E14" s="22">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F14" s="24">
-        <f t="shared" si="1"/>
+      <c r="F14" s="35">
+        <f>($B$2*$J$7)/$B14</f>
         <v>2.6459177781709675</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G14" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D15 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D15 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>120.33683215379003</v>
       </c>
       <c r="B15" s="22">
-        <f>$A15/$E15</f>
+        <f t="shared" si="0"/>
         <v>12.279268587121431</v>
       </c>
       <c r="C15" s="22">
-        <f t="shared" si="0"/>
+        <f>$B15*$J$6</f>
         <v>21.488720027462502</v>
       </c>
       <c r="D15" s="22">
@@ -5330,22 +5519,26 @@
       <c r="E15" s="22">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F15" s="24">
-        <f t="shared" si="1"/>
+      <c r="F15" s="35">
+        <f>($B$2*$J$7)/$B15</f>
         <v>2.8742884455895714</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G15" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D16 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D16 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>110.39558454088795</v>
       </c>
       <c r="B16" s="22">
-        <f>$A16/$E16</f>
+        <f t="shared" si="0"/>
         <v>11.151069145544238</v>
       </c>
       <c r="C16" s="22">
-        <f t="shared" si="0"/>
+        <f>$B16*$J$6</f>
         <v>19.514371004702415</v>
       </c>
       <c r="D16" s="22">
@@ -5354,22 +5547,26 @@
       <c r="E16" s="22">
         <v>9.9</v>
       </c>
-      <c r="F16" s="24">
-        <f t="shared" si="1"/>
+      <c r="F16" s="35">
+        <f>($B$2*$J$7)/$B16</f>
         <v>3.1650920068374795</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D17 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D17 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>100</v>
       </c>
       <c r="B17" s="22">
-        <f>$A17/$E17</f>
+        <f t="shared" si="0"/>
         <v>10.000000000000011</v>
       </c>
       <c r="C17" s="22">
-        <f t="shared" si="0"/>
+        <f>$B17*$J$6</f>
         <v>17.500000000000018</v>
       </c>
       <c r="D17" s="22">
@@ -5378,22 +5575,26 @@
       <c r="E17" s="22">
         <v>9.9999999999999893</v>
       </c>
-      <c r="F17" s="24">
-        <f t="shared" si="1"/>
+      <c r="F17" s="35">
+        <f>($B$2*$J$7)/$B17</f>
         <v>3.529415982025407</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D18 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D18 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>89.604415459112047</v>
       </c>
       <c r="B18" s="22">
-        <f>$A18/$E18</f>
+        <f t="shared" si="0"/>
         <v>8.8717243028823809</v>
       </c>
       <c r="C18" s="22">
-        <f t="shared" si="0"/>
+        <f>$B18*$J$6</f>
         <v>15.525517530044166</v>
       </c>
       <c r="D18" s="22">
@@ -5402,22 +5603,26 @@
       <c r="E18" s="22">
         <v>10.1</v>
       </c>
-      <c r="F18" s="24">
-        <f t="shared" si="1"/>
+      <c r="F18" s="35">
+        <f>($B$2*$J$7)/$B18</f>
         <v>3.978275092338837</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D19 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D19 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>79.663167846209987</v>
       </c>
       <c r="B19" s="22">
-        <f>$A19/$E19</f>
+        <f t="shared" si="0"/>
         <v>7.81011449472647</v>
       </c>
       <c r="C19" s="22">
-        <f t="shared" si="0"/>
+        <f>$B19*$J$6</f>
         <v>13.667700365771323</v>
       </c>
       <c r="D19" s="22">
@@ -5426,22 +5631,26 @@
       <c r="E19" s="22">
         <v>10.199999999999999</v>
       </c>
-      <c r="F19" s="24">
-        <f t="shared" si="1"/>
+      <c r="F19" s="35">
+        <f>($B$2*$J$7)/$B19</f>
         <v>4.5190323194474757</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D20 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D20 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>70.610737385376353</v>
       </c>
       <c r="B20" s="22">
-        <f>$A20/$E20</f>
+        <f t="shared" si="0"/>
         <v>6.8554113966384804</v>
       </c>
       <c r="C20" s="22">
-        <f t="shared" si="0"/>
+        <f>$B20*$J$6</f>
         <v>11.996969944117341</v>
       </c>
       <c r="D20" s="22">
@@ -5450,22 +5659,26 @@
       <c r="E20" s="22">
         <v>10.3</v>
       </c>
-      <c r="F20" s="24">
-        <f t="shared" si="1"/>
+      <c r="F20" s="35">
+        <f>($B$2*$J$7)/$B20</f>
         <v>5.1483649599147965</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D21 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D21 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>62.842758726130256</v>
       </c>
       <c r="B21" s="22">
-        <f>$A21/$E21</f>
+        <f t="shared" si="0"/>
         <v>6.0425729544356015</v>
       </c>
       <c r="C21" s="22">
-        <f t="shared" si="0"/>
+        <f>$B21*$J$6</f>
         <v>10.574502670262303</v>
       </c>
       <c r="D21" s="22">
@@ -5474,22 +5687,26 @@
       <c r="E21" s="22">
         <v>10.4</v>
       </c>
-      <c r="F21" s="24">
-        <f t="shared" si="1"/>
+      <c r="F21" s="35">
+        <f>($B$2*$J$7)/$B21</f>
         <v>5.8409157963655423</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D22 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D22 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>56.698729810778062</v>
       </c>
       <c r="B22" s="22">
-        <f>$A22/$E22</f>
+        <f t="shared" si="0"/>
         <v>5.3998790295979102</v>
       </c>
       <c r="C22" s="22">
-        <f t="shared" si="0"/>
+        <f>$B22*$J$6</f>
         <v>9.4497883017963424</v>
       </c>
       <c r="D22" s="22">
@@ -5498,22 +5715,26 @@
       <c r="E22" s="22">
         <v>10.5</v>
       </c>
-      <c r="F22" s="24">
-        <f t="shared" si="1"/>
+      <c r="F22" s="35">
+        <f>($B$2*$J$7)/$B22</f>
         <v>6.5361019435433922</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D23 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D23 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>52.447174185242318</v>
       </c>
       <c r="B23" s="22">
-        <f>$A23/$E23</f>
+        <f t="shared" si="0"/>
         <v>4.9478466212492753</v>
       </c>
       <c r="C23" s="22">
-        <f t="shared" si="0"/>
+        <f>$B23*$J$6</f>
         <v>8.6587315871862316</v>
       </c>
       <c r="D23" s="22">
@@ -5522,22 +5743,26 @@
       <c r="E23" s="22">
         <v>10.6</v>
       </c>
-      <c r="F23" s="24">
-        <f t="shared" si="1"/>
+      <c r="F23" s="35">
+        <f>($B$2*$J$7)/$B23</f>
         <v>7.1332364404098554</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D24 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D24 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>50.273905231586326</v>
       </c>
       <c r="B24" s="22">
-        <f>$A24/$E24</f>
+        <f t="shared" si="0"/>
         <v>4.6984958160361057</v>
       </c>
       <c r="C24" s="22">
-        <f t="shared" si="0"/>
+        <f>$B24*$J$6</f>
         <v>8.2223676780631845</v>
       </c>
       <c r="D24" s="22">
@@ -5546,22 +5771,26 @@
       <c r="E24" s="22">
         <v>10.7</v>
       </c>
-      <c r="F24" s="24">
-        <f t="shared" si="1"/>
+      <c r="F24" s="35">
+        <f>($B$2*$J$7)/$B24</f>
         <v>7.5117997763867521</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D25 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D25 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>50.273905231586326</v>
       </c>
       <c r="B25" s="22">
-        <f>$A25/$E25</f>
+        <f t="shared" si="0"/>
         <v>4.6549912251468815</v>
       </c>
       <c r="C25" s="22">
-        <f t="shared" si="0"/>
+        <f>$B25*$J$6</f>
         <v>8.146234644007043</v>
       </c>
       <c r="D25" s="22">
@@ -5570,22 +5799,26 @@
       <c r="E25" s="22">
         <v>10.8</v>
       </c>
-      <c r="F25" s="24">
-        <f t="shared" si="1"/>
+      <c r="F25" s="35">
+        <f>($B$2*$J$7)/$B25</f>
         <v>7.5820035126146674</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D26 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D26 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>52.447174185242339</v>
       </c>
       <c r="B26" s="22">
-        <f>$A26/$E26</f>
+        <f t="shared" si="0"/>
         <v>4.8116673564442509</v>
       </c>
       <c r="C26" s="22">
-        <f t="shared" si="0"/>
+        <f>$B26*$J$6</f>
         <v>8.4204178737774384</v>
       </c>
       <c r="D26" s="22">
@@ -5594,22 +5827,26 @@
       <c r="E26" s="22">
         <v>10.9</v>
       </c>
-      <c r="F26" s="24">
-        <f t="shared" si="1"/>
+      <c r="F26" s="35">
+        <f>($B$2*$J$7)/$B26</f>
         <v>7.3351204906101319</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D27 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D27 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>56.698729810778069</v>
       </c>
       <c r="B27" s="22">
-        <f>$A27/$E27</f>
+        <f t="shared" si="0"/>
         <v>5.154429982798006</v>
       </c>
       <c r="C27" s="22">
-        <f t="shared" si="0"/>
+        <f>$B27*$J$6</f>
         <v>9.0202524698965103</v>
       </c>
       <c r="D27" s="22">
@@ -5618,22 +5855,26 @@
       <c r="E27" s="22">
         <v>11</v>
       </c>
-      <c r="F27" s="24">
-        <f t="shared" si="1"/>
+      <c r="F27" s="35">
+        <f>($B$2*$J$7)/$B27</f>
         <v>6.8473448932359338</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D28 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D28 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>62.842758726130278</v>
       </c>
       <c r="B28" s="22">
-        <f>$A28/$E28</f>
+        <f t="shared" si="0"/>
         <v>5.6615097951468725</v>
       </c>
       <c r="C28" s="22">
-        <f t="shared" si="0"/>
+        <f>$B28*$J$6</f>
         <v>9.9076421415070275</v>
       </c>
       <c r="D28" s="22">
@@ -5642,22 +5883,26 @@
       <c r="E28" s="22">
         <v>11.1</v>
       </c>
-      <c r="F28" s="24">
-        <f t="shared" si="1"/>
+      <c r="F28" s="35">
+        <f>($B$2*$J$7)/$B28</f>
         <v>6.2340543595824505</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D29 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D29 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>70.610737385376325</v>
       </c>
       <c r="B29" s="22">
-        <f>$A29/$E29</f>
+        <f t="shared" si="0"/>
         <v>6.304530123694315</v>
       </c>
       <c r="C29" s="22">
-        <f t="shared" si="0"/>
+        <f>$B29*$J$6</f>
         <v>11.032927716465052</v>
       </c>
       <c r="D29" s="22">
@@ -5666,22 +5911,26 @@
       <c r="E29" s="22">
         <v>11.2</v>
       </c>
-      <c r="F29" s="24">
-        <f t="shared" si="1"/>
+      <c r="F29" s="35">
+        <f>($B$2*$J$7)/$B29</f>
         <v>5.5982220923345372</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D30 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D30 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>79.663167846209987</v>
       </c>
       <c r="B30" s="22">
-        <f>$A30/$E30</f>
+        <f t="shared" si="0"/>
         <v>7.0498378624964584</v>
       </c>
       <c r="C30" s="22">
-        <f t="shared" si="0"/>
+        <f>$B30*$J$6</f>
         <v>12.337216259368802</v>
       </c>
       <c r="D30" s="22">
@@ -5690,22 +5939,26 @@
       <c r="E30" s="22">
         <v>11.3</v>
       </c>
-      <c r="F30" s="24">
-        <f t="shared" si="1"/>
+      <c r="F30" s="35">
+        <f>($B$2*$J$7)/$B30</f>
         <v>5.0063789421329883</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D31 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D31 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>89.604415459112047</v>
       </c>
       <c r="B31" s="22">
-        <f>$A31/$E31</f>
+        <f t="shared" si="0"/>
         <v>7.860036443781758</v>
       </c>
       <c r="C31" s="22">
-        <f t="shared" si="0"/>
+        <f>$B31*$J$6</f>
         <v>13.755063776618076</v>
       </c>
       <c r="D31" s="22">
@@ -5714,22 +5967,26 @@
       <c r="E31" s="22">
         <v>11.4</v>
       </c>
-      <c r="F31" s="24">
-        <f t="shared" si="1"/>
+      <c r="F31" s="35">
+        <f>($B$2*$J$7)/$B31</f>
         <v>4.4903303022438363</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G31" s="12">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="13">
-        <f>($I$3 + (($I$3 * $I$2) * SIN((MOD((($D32 - $I$5)/$I$4), 1) * $I$4) * ((2 * PI())/$I$4))))*100</f>
+        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D32 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
         <v>100</v>
       </c>
       <c r="B32" s="23">
-        <f>$A32/$E32</f>
+        <f t="shared" si="0"/>
         <v>8.695652173913043</v>
       </c>
       <c r="C32" s="23">
-        <f t="shared" si="0"/>
+        <f>$B32*$J$6</f>
         <v>15.217391304347824</v>
       </c>
       <c r="D32" s="23">
@@ -5738,9 +5995,13 @@
       <c r="E32" s="23">
         <v>11.5</v>
       </c>
-      <c r="F32" s="35">
-        <f t="shared" si="1"/>
+      <c r="F32" s="36">
+        <f>($B$2*$J$7)/$B32</f>
         <v>4.0588283793292224</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/hertz_calculator.xlsx
+++ b/hertz_calculator.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>USD @ Start</t>
   </si>
@@ -130,13 +130,32 @@
   <si>
     <t>MCR</t>
   </si>
+  <si>
+    <t>Timestamp references</t>
+  </si>
+  <si>
+    <t>Shorting @ 1.50</t>
+  </si>
+  <si>
+    <t>Shorting @ 1.00</t>
+  </si>
+  <si>
+    <t>Shorting @ 0.50</t>
+  </si>
+  <si>
+    <t>0.5 == 50%</t>
+  </si>
+  <si>
+    <t>(Reference by changing column D to point between U, V &amp; W).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -198,7 +217,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +390,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,14 +434,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -451,36 +526,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -490,9 +535,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>HERTZ (USD/HERTZ)</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -522,97 +564,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>657288.00000000221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87638.399999999994</c:v>
+                  <c:v>744926.40000000224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175276.79999999999</c:v>
+                  <c:v>832564.80000000226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262915.20000000001</c:v>
+                  <c:v>920203.20000000228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>350553.59999999998</c:v>
+                  <c:v>1007841.6000000023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>438192</c:v>
+                  <c:v>1095480.0000000023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>525830.40000000002</c:v>
+                  <c:v>1183118.4000000022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>613468.80000000005</c:v>
+                  <c:v>1270756.8000000021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>701107.19999999995</c:v>
+                  <c:v>1358395.200000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>788745.6</c:v>
+                  <c:v>1446033.600000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>876384</c:v>
+                  <c:v>1533672.0000000019</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>964022.4</c:v>
+                  <c:v>1621310.4000000018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1051660.8</c:v>
+                  <c:v>1708948.8000000017</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1139299.2</c:v>
+                  <c:v>1796587.2000000016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1226937.6000000001</c:v>
+                  <c:v>1884225.6000000015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1314576</c:v>
+                  <c:v>1971864.0000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1402214.3999999999</c:v>
+                  <c:v>2059502.4000000013</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1489852.8</c:v>
+                  <c:v>2147140.8000000012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1577491.2</c:v>
+                  <c:v>2234779.2000000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1665129.6</c:v>
+                  <c:v>2322417.600000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1752768</c:v>
+                  <c:v>2410056.0000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1840406.4</c:v>
+                  <c:v>2497694.4000000008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1928044.8</c:v>
+                  <c:v>2585332.8000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015683.2</c:v>
+                  <c:v>2672971.2000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2103321.6000000001</c:v>
+                  <c:v>2760609.6000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2190960</c:v>
+                  <c:v>2848248.0000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2278598.4</c:v>
+                  <c:v>2935886.4000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2366236.7999999998</c:v>
+                  <c:v>3023524.8000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2453875.2000000002</c:v>
+                  <c:v>3111163.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2541513.6</c:v>
+                  <c:v>3198801.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2629152</c:v>
+                  <c:v>3286440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -621,106 +663,113 @@
             <c:numRef>
               <c:f>Simulator!$A$2:$A$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>100.00011949071997</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.39558454088795</c:v>
+                  <c:v>148.90738003669023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120.33683215379001</c:v>
+                  <c:v>145.67727288212993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129.38926261462368</c:v>
+                  <c:v>140.45084971874721</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>137.15724127386972</c:v>
+                  <c:v>133.45653031794271</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>143.30127018922195</c:v>
+                  <c:v>124.99999999999977</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>147.55282581475768</c:v>
+                  <c:v>115.45084971874712</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>149.72609476841367</c:v>
+                  <c:v>105.22642316338242</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>149.72609476841367</c:v>
+                  <c:v>94.773576836617053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>147.55282581475768</c:v>
+                  <c:v>84.549150281252409</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>143.30127018922192</c:v>
+                  <c:v>74.999999999999801</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>137.15724127386972</c:v>
+                  <c:v>66.543469682056937</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>129.38926261462365</c:v>
+                  <c:v>59.549150281252508</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120.33683215379003</c:v>
+                  <c:v>54.322727117869874</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>110.39558454088795</c:v>
+                  <c:v>51.092619963309673</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>89.604415459112047</c:v>
+                  <c:v>51.092619963309758</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>79.663167846209987</c:v>
+                  <c:v>54.322727117870016</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70.610737385376353</c:v>
+                  <c:v>59.549150281252693</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>62.842758726130256</c:v>
+                  <c:v>66.543469682057193</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>56.698729810778062</c:v>
+                  <c:v>75.000000000000085</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52.447174185242318</c:v>
+                  <c:v>84.549150281252736</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50.273905231586326</c:v>
+                  <c:v>94.773576836617409</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50.273905231586326</c:v>
+                  <c:v>105.22642316338273</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52.447174185242339</c:v>
+                  <c:v>115.45084971874746</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>56.698729810778069</c:v>
+                  <c:v>125.00000000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62.842758726130278</c:v>
+                  <c:v>133.45653031794296</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70.610737385376325</c:v>
+                  <c:v>140.45084971874741</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>79.663167846209987</c:v>
+                  <c:v>145.67727288213004</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>89.604415459112047</c:v>
+                  <c:v>148.90738003669028</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:v>HERTZ (USD/HERTZ)</c:v>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000020-A90A-4335-8B04-CF8B8D4E1F36}"/>
             </c:ext>
@@ -934,7 +983,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1128,97 +1177,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>657288.00000000221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87638.399999999994</c:v>
+                  <c:v>744926.40000000224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175276.79999999999</c:v>
+                  <c:v>832564.80000000226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262915.20000000001</c:v>
+                  <c:v>920203.20000000228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>350553.59999999998</c:v>
+                  <c:v>1007841.6000000023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>438192</c:v>
+                  <c:v>1095480.0000000023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>525830.40000000002</c:v>
+                  <c:v>1183118.4000000022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>613468.80000000005</c:v>
+                  <c:v>1270756.8000000021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>701107.19999999995</c:v>
+                  <c:v>1358395.200000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>788745.6</c:v>
+                  <c:v>1446033.600000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>876384</c:v>
+                  <c:v>1533672.0000000019</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>964022.4</c:v>
+                  <c:v>1621310.4000000018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1051660.8</c:v>
+                  <c:v>1708948.8000000017</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1139299.2</c:v>
+                  <c:v>1796587.2000000016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1226937.6000000001</c:v>
+                  <c:v>1884225.6000000015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1314576</c:v>
+                  <c:v>1971864.0000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1402214.3999999999</c:v>
+                  <c:v>2059502.4000000013</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1489852.8</c:v>
+                  <c:v>2147140.8000000012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1577491.2</c:v>
+                  <c:v>2234779.2000000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1665129.6</c:v>
+                  <c:v>2322417.600000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1752768</c:v>
+                  <c:v>2410056.0000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1840406.4</c:v>
+                  <c:v>2497694.4000000008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1928044.8</c:v>
+                  <c:v>2585332.8000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015683.2</c:v>
+                  <c:v>2672971.2000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2103321.6000000001</c:v>
+                  <c:v>2760609.6000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2190960</c:v>
+                  <c:v>2848248.0000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2278598.4</c:v>
+                  <c:v>2935886.4000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2366236.7999999998</c:v>
+                  <c:v>3023524.8000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2453875.2000000002</c:v>
+                  <c:v>3111163.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2541513.6</c:v>
+                  <c:v>3198801.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2629152</c:v>
+                  <c:v>3286440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,100 +1276,100 @@
             <c:numRef>
               <c:f>Simulator!$B$2:$B$32</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>11.764719940084703</c:v>
+                  <c:v>17.647058823529413</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.836695876847436</c:v>
+                  <c:v>17.314811632173281</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.831819787791957</c:v>
+                  <c:v>16.74451412438275</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.703325297116326</c:v>
+                  <c:v>15.960323831675817</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.410925985828058</c:v>
+                  <c:v>14.995115766060978</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.922363354357994</c:v>
+                  <c:v>13.888888888888864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.214596243379965</c:v>
+                  <c:v>12.686906562499685</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.274575518305834</c:v>
+                  <c:v>11.437654691672003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.099580082625124</c:v>
+                  <c:v>10.190707186733016</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.69710912922954</c:v>
+                  <c:v>8.9945904554523839</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.084344230444414</c:v>
+                  <c:v>7.8947368421052424</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.287212632694763</c:v>
+                  <c:v>6.9316114252142649</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.339099238620996</c:v>
+                  <c:v>6.1390876578610838</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.279268587121431</c:v>
+                  <c:v>5.5431354201908034</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.151069145544238</c:v>
+                  <c:v>5.1608707033646128</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.000000000000011</c:v>
+                  <c:v>5.0000000000000053</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.8717243028823809</c:v>
+                  <c:v>5.058675243892055</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.81011449472647</c:v>
+                  <c:v>5.3257575605754921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.8554113966384804</c:v>
+                  <c:v>5.7814709010924945</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0425729544356015</c:v>
+                  <c:v>6.398410546351653</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.3998790295979102</c:v>
+                  <c:v>7.1428571428571512</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.9478466212492753</c:v>
+                  <c:v>7.9763349321936543</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.6984958160361057</c:v>
+                  <c:v>8.857343629590412</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.6549912251468815</c:v>
+                  <c:v>9.7431873299428453</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.8116673564442509</c:v>
+                  <c:v>10.591821075114446</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.154429982798006</c:v>
+                  <c:v>11.363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.6615097951468725</c:v>
+                  <c:v>12.023110839454322</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.304530123694315</c:v>
+                  <c:v>12.540254439173877</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0498378624964584</c:v>
+                  <c:v>12.891794060365489</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.860036443781758</c:v>
+                  <c:v>13.062050880411428</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.695652173913043</c:v>
+                  <c:v>13.043478260869565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1365,97 +1414,97 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>657288.00000000221</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87638.399999999994</c:v>
+                  <c:v>744926.40000000224</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>175276.79999999999</c:v>
+                  <c:v>832564.80000000226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>262915.20000000001</c:v>
+                  <c:v>920203.20000000228</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>350553.59999999998</c:v>
+                  <c:v>1007841.6000000023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>438192</c:v>
+                  <c:v>1095480.0000000023</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>525830.40000000002</c:v>
+                  <c:v>1183118.4000000022</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>613468.80000000005</c:v>
+                  <c:v>1270756.8000000021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>701107.19999999995</c:v>
+                  <c:v>1358395.200000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>788745.6</c:v>
+                  <c:v>1446033.600000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>876384</c:v>
+                  <c:v>1533672.0000000019</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>964022.4</c:v>
+                  <c:v>1621310.4000000018</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1051660.8</c:v>
+                  <c:v>1708948.8000000017</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1139299.2</c:v>
+                  <c:v>1796587.2000000016</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1226937.6000000001</c:v>
+                  <c:v>1884225.6000000015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1314576</c:v>
+                  <c:v>1971864.0000000014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1402214.3999999999</c:v>
+                  <c:v>2059502.4000000013</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1489852.8</c:v>
+                  <c:v>2147140.8000000012</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1577491.2</c:v>
+                  <c:v>2234779.2000000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1665129.6</c:v>
+                  <c:v>2322417.600000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1752768</c:v>
+                  <c:v>2410056.0000000009</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1840406.4</c:v>
+                  <c:v>2497694.4000000008</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1928044.8</c:v>
+                  <c:v>2585332.8000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2015683.2</c:v>
+                  <c:v>2672971.2000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2103321.6000000001</c:v>
+                  <c:v>2760609.6000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2190960</c:v>
+                  <c:v>2848248.0000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2278598.4</c:v>
+                  <c:v>2935886.4000000004</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2366236.7999999998</c:v>
+                  <c:v>3023524.8000000003</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2453875.2000000002</c:v>
+                  <c:v>3111163.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2541513.6</c:v>
+                  <c:v>3198801.6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2629152</c:v>
+                  <c:v>3286440</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,97 +1643,97 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7494738645254873</c:v>
+                  <c:v>2.0383772227401851</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.551664232309109</c:v>
+                  <c:v>2.1078018379562784</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4004202523612901</c:v>
+                  <c:v>2.2113660110712794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2902037069486116</c:v>
+                  <c:v>2.353707580367026</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2166407734059153</c:v>
+                  <c:v>2.54117647058824</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.176690636664103</c:v>
+                  <c:v>2.7819324965616263</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1686685333546687</c:v>
+                  <c:v>3.0857827586591871</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1922410174128717</c:v>
+                  <c:v>3.4633629443310081</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2484496686420403</c:v>
+                  <c:v>3.9239271450835282</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3397874830395775</c:v>
+                  <c:v>4.4705882352941293</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4703320883940081</c:v>
+                  <c:v>5.0917622875791597</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6459177781709675</c:v>
+                  <c:v>5.7490818854597734</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.8742884455895714</c:v>
+                  <c:v>6.3671757898066916</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1650920068374795</c:v>
+                  <c:v>6.8387912962145982</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.529415982025407</c:v>
+                  <c:v>7.0588235294117574</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.978275092338837</c:v>
+                  <c:v>6.9769486961381135</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5190323194474757</c:v>
+                  <c:v>6.627060515921233</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1483649599147965</c:v>
+                  <c:v>6.104695197962422</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8409157963655423</c:v>
+                  <c:v>5.5160758115440691</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.5361019435433922</c:v>
+                  <c:v>4.9411764705882302</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7.1332364404098554</c:v>
+                  <c:v>4.4248540146686421</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.5117997763867521</c:v>
+                  <c:v>3.9847294090689944</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.5820035126146674</c:v>
+                  <c:v>3.6224406297303395</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.3351204906101319</c:v>
+                  <c:v>3.3322048585188613</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.8473448932359338</c:v>
+                  <c:v>3.1058823529411757</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.2340543595824505</c:v>
+                  <c:v>2.9355229373116778</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.5982220923345372</c:v>
+                  <c:v>2.8144658322725324</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.0063789421329883</c:v>
+                  <c:v>2.7377196286098768</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.4903303022438363</c:v>
+                  <c:v>2.7020349231672212</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0588283793292224</c:v>
+                  <c:v>2.7058823529411766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1907,7 +1956,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3135,15 +3184,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1394010</xdr:colOff>
+      <xdr:colOff>1394009</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>85164</xdr:rowOff>
+      <xdr:rowOff>85163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>8965</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>582705</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>138953</xdr:rowOff>
+      <xdr:rowOff>170329</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3507,7 +3556,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K1" sqref="K1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4416,7 +4465,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G4"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5044,43 +5093,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:X45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="21" max="21" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -5089,919 +5144,1387 @@
       <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D2 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>100.00011949071997</v>
-      </c>
-      <c r="B2" s="22">
-        <f t="shared" ref="B2:B32" si="0">$A2/$E2</f>
-        <v>11.764719940084703</v>
-      </c>
-      <c r="C2" s="22">
-        <f>$B2*$J$6</f>
-        <v>20.58825989514823</v>
-      </c>
-      <c r="D2" s="22">
-        <v>1</v>
-      </c>
-      <c r="E2" s="22">
+      <c r="U1" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="32"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="33">
+        <f t="shared" ref="A2:A32" si="0">($J$3 + (($J$3 * $J$2) * SIN((MOD((($D2 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
+        <v>150</v>
+      </c>
+      <c r="B2" s="34">
+        <f t="shared" ref="B2:B32" si="1">$A2/$E2</f>
+        <v>17.647058823529413</v>
+      </c>
+      <c r="C2" s="34">
+        <f t="shared" ref="C2:C32" si="2">$B2*$J$6</f>
+        <v>30.882352941176471</v>
+      </c>
+      <c r="D2" s="35">
+        <f>$U3</f>
+        <v>657288.00000000221</v>
+      </c>
+      <c r="E2" s="35">
         <v>8.5</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="36">
         <f>$J$7</f>
-        <v>3</v>
-      </c>
-      <c r="G2" s="12">
+        <v>2</v>
+      </c>
+      <c r="G2" s="37">
         <f>$J$6</f>
         <v>1.75</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="43">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D3 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>110.39558454088795</v>
-      </c>
-      <c r="B3" s="22">
-        <f t="shared" si="0"/>
-        <v>12.836695876847436</v>
-      </c>
-      <c r="C3" s="22">
-        <f>$B3*$J$6</f>
-        <v>22.464217784483012</v>
-      </c>
-      <c r="D3" s="22">
-        <v>87638.399999999994</v>
-      </c>
-      <c r="E3" s="22">
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="33">
+        <f t="shared" si="0"/>
+        <v>148.90738003669023</v>
+      </c>
+      <c r="B3" s="34">
+        <f t="shared" si="1"/>
+        <v>17.314811632173281</v>
+      </c>
+      <c r="C3" s="34">
+        <f t="shared" si="2"/>
+        <v>30.300920356303244</v>
+      </c>
+      <c r="D3" s="35">
+        <f>$U4</f>
+        <v>744926.40000000224</v>
+      </c>
+      <c r="E3" s="35">
         <v>8.6</v>
       </c>
-      <c r="F3" s="35">
-        <f>($B$2*$J$7)/$B3</f>
-        <v>2.7494738645254873</v>
-      </c>
-      <c r="G3" s="12">
-        <f t="shared" ref="G3:G32" si="1">$J$6</f>
+      <c r="F3" s="36">
+        <f t="shared" ref="F3:F32" si="3">($B$2*$J$7)/$B3</f>
+        <v>2.0383772227401851</v>
+      </c>
+      <c r="G3" s="37">
+        <f t="shared" ref="G3:G32" si="4">$J$6</f>
         <v>1.75</v>
       </c>
       <c r="I3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="37">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D4 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>120.33683215379001</v>
-      </c>
-      <c r="B4" s="22">
-        <f t="shared" si="0"/>
-        <v>13.831819787791957</v>
-      </c>
-      <c r="C4" s="22">
-        <f>$B4*$J$6</f>
-        <v>24.205684628635925</v>
-      </c>
-      <c r="D4" s="22">
-        <v>175276.79999999999</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="U3" s="46">
+        <f t="shared" ref="U3:W31" si="5">$U4-87638.4</f>
+        <v>657288.00000000221</v>
+      </c>
+      <c r="V3" s="35">
+        <v>0</v>
+      </c>
+      <c r="W3" s="37">
+        <v>1971864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="33">
+        <f t="shared" si="0"/>
+        <v>145.67727288212993</v>
+      </c>
+      <c r="B4" s="34">
+        <f t="shared" si="1"/>
+        <v>16.74451412438275</v>
+      </c>
+      <c r="C4" s="34">
+        <f t="shared" si="2"/>
+        <v>29.302899717669813</v>
+      </c>
+      <c r="D4" s="35">
+        <f t="shared" ref="D4:D32" si="6">$U5</f>
+        <v>832564.80000000226</v>
+      </c>
+      <c r="E4" s="35">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F4" s="35">
-        <f>($B$2*$J$7)/$B4</f>
-        <v>2.551664232309109</v>
-      </c>
-      <c r="G4" s="12">
-        <f t="shared" si="1"/>
+      <c r="F4" s="36">
+        <f t="shared" si="3"/>
+        <v>2.1078018379562784</v>
+      </c>
+      <c r="G4" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="37">
         <f>((30.43*60)*60)*24</f>
         <v>2629152</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D5 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>129.38926261462368</v>
-      </c>
-      <c r="B5" s="22">
-        <f t="shared" si="0"/>
-        <v>14.703325297116326</v>
-      </c>
-      <c r="C5" s="22">
-        <f>$B5*$J$6</f>
-        <v>25.730819269953571</v>
-      </c>
-      <c r="D5" s="22">
-        <v>262915.20000000001</v>
-      </c>
-      <c r="E5" s="22">
+      <c r="U4" s="46">
+        <f t="shared" si="5"/>
+        <v>744926.40000000224</v>
+      </c>
+      <c r="V4" s="35">
+        <f t="shared" ref="V4:V31" si="7">$V5 - 87638.4</f>
+        <v>87638.400000001478</v>
+      </c>
+      <c r="W4" s="37">
+        <f>$W3+87638.4</f>
+        <v>2059502.4</v>
+      </c>
+      <c r="X4" s="22"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="33">
+        <f t="shared" si="0"/>
+        <v>140.45084971874721</v>
+      </c>
+      <c r="B5" s="34">
+        <f t="shared" si="1"/>
+        <v>15.960323831675817</v>
+      </c>
+      <c r="C5" s="34">
+        <f t="shared" si="2"/>
+        <v>27.930566705432678</v>
+      </c>
+      <c r="D5" s="35">
+        <f t="shared" si="6"/>
+        <v>920203.20000000228</v>
+      </c>
+      <c r="E5" s="35">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F5" s="35">
-        <f>($B$2*$J$7)/$B5</f>
-        <v>2.4004202523612901</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="1"/>
+      <c r="F5" s="36">
+        <f t="shared" si="3"/>
+        <v>2.2113660110712794</v>
+      </c>
+      <c r="G5" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="44">
         <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D6 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>137.15724127386972</v>
-      </c>
-      <c r="B6" s="22">
-        <f t="shared" si="0"/>
-        <v>15.410925985828058</v>
-      </c>
-      <c r="C6" s="22">
-        <f>$B6*$J$6</f>
-        <v>26.969120475199102</v>
-      </c>
-      <c r="D6" s="22">
-        <v>350553.59999999998</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="U5" s="46">
+        <f t="shared" si="5"/>
+        <v>832564.80000000226</v>
+      </c>
+      <c r="V5" s="35">
+        <f t="shared" si="7"/>
+        <v>175276.80000000147</v>
+      </c>
+      <c r="W5" s="37">
+        <f t="shared" ref="W5:W33" si="8">$W4+87638.4</f>
+        <v>2147140.7999999998</v>
+      </c>
+      <c r="X5" s="22"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="33">
+        <f t="shared" si="0"/>
+        <v>133.45653031794271</v>
+      </c>
+      <c r="B6" s="34">
+        <f t="shared" si="1"/>
+        <v>14.995115766060978</v>
+      </c>
+      <c r="C6" s="34">
+        <f t="shared" si="2"/>
+        <v>26.241452590606713</v>
+      </c>
+      <c r="D6" s="35">
+        <f t="shared" si="6"/>
+        <v>1007841.6000000023</v>
+      </c>
+      <c r="E6" s="35">
         <v>8.9</v>
       </c>
-      <c r="F6" s="35">
-        <f>($B$2*$J$7)/$B6</f>
-        <v>2.2902037069486116</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="1"/>
+      <c r="F6" s="36">
+        <f t="shared" si="3"/>
+        <v>2.353707580367026</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="44">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D7 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>143.30127018922195</v>
-      </c>
-      <c r="B7" s="22">
-        <f t="shared" si="0"/>
-        <v>15.922363354357994</v>
-      </c>
-      <c r="C7" s="22">
-        <f>$B7*$J$6</f>
-        <v>27.864135870126489</v>
-      </c>
-      <c r="D7" s="22">
-        <v>438192</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="U6" s="46">
+        <f t="shared" si="5"/>
+        <v>920203.20000000228</v>
+      </c>
+      <c r="V6" s="35">
+        <f t="shared" si="7"/>
+        <v>262915.20000000147</v>
+      </c>
+      <c r="W6" s="37">
+        <f t="shared" si="8"/>
+        <v>2234779.1999999997</v>
+      </c>
+      <c r="X6" s="22"/>
+    </row>
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="33">
+        <f t="shared" si="0"/>
+        <v>124.99999999999977</v>
+      </c>
+      <c r="B7" s="34">
+        <f t="shared" si="1"/>
+        <v>13.888888888888864</v>
+      </c>
+      <c r="C7" s="34">
+        <f t="shared" si="2"/>
+        <v>24.305555555555515</v>
+      </c>
+      <c r="D7" s="35">
+        <f t="shared" si="6"/>
+        <v>1095480.0000000023</v>
+      </c>
+      <c r="E7" s="35">
         <v>9</v>
       </c>
-      <c r="F7" s="35">
-        <f>($B$2*$J$7)/$B7</f>
-        <v>2.2166407734059153</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="1"/>
+      <c r="F7" s="36">
+        <f t="shared" si="3"/>
+        <v>2.54117647058824</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D8 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>147.55282581475768</v>
-      </c>
-      <c r="B8" s="22">
-        <f t="shared" si="0"/>
-        <v>16.214596243379965</v>
-      </c>
-      <c r="C8" s="22">
-        <f>$B8*$J$6</f>
-        <v>28.375543425914941</v>
-      </c>
-      <c r="D8" s="22">
-        <v>525830.40000000002</v>
-      </c>
-      <c r="E8" s="22">
+      <c r="J7" s="45">
+        <v>2</v>
+      </c>
+      <c r="U7" s="46">
+        <f t="shared" si="5"/>
+        <v>1007841.6000000023</v>
+      </c>
+      <c r="V7" s="35">
+        <f t="shared" si="7"/>
+        <v>350553.60000000149</v>
+      </c>
+      <c r="W7" s="37">
+        <f t="shared" si="8"/>
+        <v>2322417.5999999996</v>
+      </c>
+      <c r="X7" s="22"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="33">
+        <f t="shared" si="0"/>
+        <v>115.45084971874712</v>
+      </c>
+      <c r="B8" s="34">
+        <f t="shared" si="1"/>
+        <v>12.686906562499685</v>
+      </c>
+      <c r="C8" s="34">
+        <f t="shared" si="2"/>
+        <v>22.202086484374448</v>
+      </c>
+      <c r="D8" s="35">
+        <f t="shared" si="6"/>
+        <v>1183118.4000000022</v>
+      </c>
+      <c r="E8" s="35">
         <v>9.1</v>
       </c>
-      <c r="F8" s="35">
-        <f>($B$2*$J$7)/$B8</f>
-        <v>2.176690636664103</v>
-      </c>
-      <c r="G8" s="12">
-        <f t="shared" si="1"/>
+      <c r="F8" s="36">
+        <f t="shared" si="3"/>
+        <v>2.7819324965616263</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D9 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>149.72609476841367</v>
-      </c>
-      <c r="B9" s="22">
-        <f t="shared" si="0"/>
-        <v>16.274575518305834</v>
-      </c>
-      <c r="C9" s="22">
-        <f>$B9*$J$6</f>
-        <v>28.480507157035209</v>
-      </c>
-      <c r="D9" s="22">
-        <v>613468.80000000005</v>
-      </c>
-      <c r="E9" s="22">
+      <c r="U8" s="46">
+        <f t="shared" si="5"/>
+        <v>1095480.0000000023</v>
+      </c>
+      <c r="V8" s="35">
+        <f t="shared" si="7"/>
+        <v>438192.00000000151</v>
+      </c>
+      <c r="W8" s="37">
+        <f t="shared" si="8"/>
+        <v>2410055.9999999995</v>
+      </c>
+      <c r="X8" s="22"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
+        <f t="shared" si="0"/>
+        <v>105.22642316338242</v>
+      </c>
+      <c r="B9" s="34">
+        <f t="shared" si="1"/>
+        <v>11.437654691672003</v>
+      </c>
+      <c r="C9" s="34">
+        <f t="shared" si="2"/>
+        <v>20.015895710426005</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="6"/>
+        <v>1270756.8000000021</v>
+      </c>
+      <c r="E9" s="35">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F9" s="35">
-        <f>($B$2*$J$7)/$B9</f>
-        <v>2.1686685333546687</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="1"/>
+      <c r="F9" s="36">
+        <f t="shared" si="3"/>
+        <v>3.0857827586591871</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D10 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>149.72609476841367</v>
-      </c>
-      <c r="B10" s="22">
-        <f t="shared" si="0"/>
-        <v>16.099580082625124</v>
-      </c>
-      <c r="C10" s="22">
-        <f>$B10*$J$6</f>
-        <v>28.174265144593967</v>
-      </c>
-      <c r="D10" s="22">
-        <v>701107.19999999995</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="U9" s="46">
+        <f t="shared" si="5"/>
+        <v>1183118.4000000022</v>
+      </c>
+      <c r="V9" s="35">
+        <f t="shared" si="7"/>
+        <v>525830.40000000154</v>
+      </c>
+      <c r="W9" s="37">
+        <f t="shared" si="8"/>
+        <v>2497694.3999999994</v>
+      </c>
+      <c r="X9" s="22"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <f t="shared" si="0"/>
+        <v>94.773576836617053</v>
+      </c>
+      <c r="B10" s="34">
+        <f t="shared" si="1"/>
+        <v>10.190707186733016</v>
+      </c>
+      <c r="C10" s="34">
+        <f t="shared" si="2"/>
+        <v>17.833737576782777</v>
+      </c>
+      <c r="D10" s="35">
+        <f t="shared" si="6"/>
+        <v>1358395.200000002</v>
+      </c>
+      <c r="E10" s="35">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F10" s="35">
-        <f>($B$2*$J$7)/$B10</f>
-        <v>2.1922410174128717</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="1"/>
+      <c r="F10" s="36">
+        <f t="shared" si="3"/>
+        <v>3.4633629443310081</v>
+      </c>
+      <c r="G10" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D11 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>147.55282581475768</v>
-      </c>
-      <c r="B11" s="22">
-        <f t="shared" si="0"/>
-        <v>15.69710912922954</v>
-      </c>
-      <c r="C11" s="22">
-        <f>$B11*$J$6</f>
-        <v>27.469940976151694</v>
-      </c>
-      <c r="D11" s="22">
-        <v>788745.6</v>
-      </c>
-      <c r="E11" s="22">
+      <c r="U10" s="46">
+        <f t="shared" si="5"/>
+        <v>1270756.8000000021</v>
+      </c>
+      <c r="V10" s="35">
+        <f t="shared" si="7"/>
+        <v>613468.80000000156</v>
+      </c>
+      <c r="W10" s="37">
+        <f t="shared" si="8"/>
+        <v>2585332.7999999993</v>
+      </c>
+      <c r="X10" s="22"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <f t="shared" si="0"/>
+        <v>84.549150281252409</v>
+      </c>
+      <c r="B11" s="34">
+        <f t="shared" si="1"/>
+        <v>8.9945904554523839</v>
+      </c>
+      <c r="C11" s="34">
+        <f t="shared" si="2"/>
+        <v>15.740533297041672</v>
+      </c>
+      <c r="D11" s="35">
+        <f t="shared" si="6"/>
+        <v>1446033.600000002</v>
+      </c>
+      <c r="E11" s="35">
         <v>9.4</v>
       </c>
-      <c r="F11" s="35">
-        <f>($B$2*$J$7)/$B11</f>
-        <v>2.2484496686420403</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="1"/>
+      <c r="F11" s="36">
+        <f t="shared" si="3"/>
+        <v>3.9239271450835282</v>
+      </c>
+      <c r="G11" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D12 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>143.30127018922192</v>
-      </c>
-      <c r="B12" s="22">
-        <f t="shared" si="0"/>
-        <v>15.084344230444414</v>
-      </c>
-      <c r="C12" s="22">
-        <f>$B12*$J$6</f>
-        <v>26.397602403277723</v>
-      </c>
-      <c r="D12" s="22">
-        <v>876384</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="U11" s="46">
+        <f t="shared" si="5"/>
+        <v>1358395.200000002</v>
+      </c>
+      <c r="V11" s="35">
+        <f t="shared" si="7"/>
+        <v>701107.20000000158</v>
+      </c>
+      <c r="W11" s="37">
+        <f t="shared" si="8"/>
+        <v>2672971.1999999993</v>
+      </c>
+      <c r="X11" s="22"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <f t="shared" si="0"/>
+        <v>74.999999999999801</v>
+      </c>
+      <c r="B12" s="34">
+        <f t="shared" si="1"/>
+        <v>7.8947368421052424</v>
+      </c>
+      <c r="C12" s="34">
+        <f t="shared" si="2"/>
+        <v>13.815789473684173</v>
+      </c>
+      <c r="D12" s="35">
+        <f t="shared" si="6"/>
+        <v>1533672.0000000019</v>
+      </c>
+      <c r="E12" s="35">
         <v>9.5</v>
       </c>
-      <c r="F12" s="35">
-        <f>($B$2*$J$7)/$B12</f>
-        <v>2.3397874830395775</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="1"/>
+      <c r="F12" s="36">
+        <f t="shared" si="3"/>
+        <v>4.4705882352941293</v>
+      </c>
+      <c r="G12" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D13 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>137.15724127386972</v>
-      </c>
-      <c r="B13" s="22">
-        <f t="shared" si="0"/>
-        <v>14.287212632694763</v>
-      </c>
-      <c r="C13" s="22">
-        <f>$B13*$J$6</f>
-        <v>25.002622107215835</v>
-      </c>
-      <c r="D13" s="22">
-        <v>964022.4</v>
-      </c>
-      <c r="E13" s="22">
+      <c r="U12" s="46">
+        <f t="shared" si="5"/>
+        <v>1446033.600000002</v>
+      </c>
+      <c r="V12" s="35">
+        <f t="shared" si="7"/>
+        <v>788745.60000000161</v>
+      </c>
+      <c r="W12" s="37">
+        <f t="shared" si="8"/>
+        <v>2760609.5999999992</v>
+      </c>
+      <c r="X12" s="22"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <f t="shared" si="0"/>
+        <v>66.543469682056937</v>
+      </c>
+      <c r="B13" s="34">
+        <f t="shared" si="1"/>
+        <v>6.9316114252142649</v>
+      </c>
+      <c r="C13" s="34">
+        <f t="shared" si="2"/>
+        <v>12.130319994124964</v>
+      </c>
+      <c r="D13" s="35">
+        <f t="shared" si="6"/>
+        <v>1621310.4000000018</v>
+      </c>
+      <c r="E13" s="35">
         <v>9.6</v>
       </c>
-      <c r="F13" s="35">
-        <f>($B$2*$J$7)/$B13</f>
-        <v>2.4703320883940081</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="1"/>
+      <c r="F13" s="36">
+        <f t="shared" si="3"/>
+        <v>5.0917622875791597</v>
+      </c>
+      <c r="G13" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D14 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>129.38926261462365</v>
-      </c>
-      <c r="B14" s="22">
-        <f t="shared" si="0"/>
-        <v>13.339099238620996</v>
-      </c>
-      <c r="C14" s="22">
-        <f>$B14*$J$6</f>
-        <v>23.343423667586741</v>
-      </c>
-      <c r="D14" s="22">
-        <v>1051660.8</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="U13" s="46">
+        <f t="shared" si="5"/>
+        <v>1533672.0000000019</v>
+      </c>
+      <c r="V13" s="35">
+        <f t="shared" si="7"/>
+        <v>876384.00000000163</v>
+      </c>
+      <c r="W13" s="37">
+        <f t="shared" si="8"/>
+        <v>2848247.9999999991</v>
+      </c>
+      <c r="X13" s="22"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <f t="shared" si="0"/>
+        <v>59.549150281252508</v>
+      </c>
+      <c r="B14" s="34">
+        <f t="shared" si="1"/>
+        <v>6.1390876578610838</v>
+      </c>
+      <c r="C14" s="34">
+        <f t="shared" si="2"/>
+        <v>10.743403401256897</v>
+      </c>
+      <c r="D14" s="35">
+        <f t="shared" si="6"/>
+        <v>1708948.8000000017</v>
+      </c>
+      <c r="E14" s="35">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F14" s="35">
-        <f>($B$2*$J$7)/$B14</f>
-        <v>2.6459177781709675</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="1"/>
+      <c r="F14" s="36">
+        <f t="shared" si="3"/>
+        <v>5.7490818854597734</v>
+      </c>
+      <c r="G14" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D15 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>120.33683215379003</v>
-      </c>
-      <c r="B15" s="22">
-        <f t="shared" si="0"/>
-        <v>12.279268587121431</v>
-      </c>
-      <c r="C15" s="22">
-        <f>$B15*$J$6</f>
-        <v>21.488720027462502</v>
-      </c>
-      <c r="D15" s="22">
-        <v>1139299.2</v>
-      </c>
-      <c r="E15" s="22">
+      <c r="U14" s="46">
+        <f t="shared" si="5"/>
+        <v>1621310.4000000018</v>
+      </c>
+      <c r="V14" s="35">
+        <f t="shared" si="7"/>
+        <v>964022.40000000165</v>
+      </c>
+      <c r="W14" s="37">
+        <f t="shared" si="8"/>
+        <v>2935886.399999999</v>
+      </c>
+      <c r="X14" s="22"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <f t="shared" si="0"/>
+        <v>54.322727117869874</v>
+      </c>
+      <c r="B15" s="34">
+        <f t="shared" si="1"/>
+        <v>5.5431354201908034</v>
+      </c>
+      <c r="C15" s="34">
+        <f t="shared" si="2"/>
+        <v>9.7004869853339066</v>
+      </c>
+      <c r="D15" s="35">
+        <f t="shared" si="6"/>
+        <v>1796587.2000000016</v>
+      </c>
+      <c r="E15" s="35">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F15" s="35">
-        <f>($B$2*$J$7)/$B15</f>
-        <v>2.8742884455895714</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="1"/>
+      <c r="F15" s="36">
+        <f t="shared" si="3"/>
+        <v>6.3671757898066916</v>
+      </c>
+      <c r="G15" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D16 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>110.39558454088795</v>
-      </c>
-      <c r="B16" s="22">
-        <f t="shared" si="0"/>
-        <v>11.151069145544238</v>
-      </c>
-      <c r="C16" s="22">
-        <f>$B16*$J$6</f>
-        <v>19.514371004702415</v>
-      </c>
-      <c r="D16" s="22">
-        <v>1226937.6000000001</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="U15" s="46">
+        <f t="shared" si="5"/>
+        <v>1708948.8000000017</v>
+      </c>
+      <c r="V15" s="35">
+        <f t="shared" si="7"/>
+        <v>1051660.8000000017</v>
+      </c>
+      <c r="W15" s="37">
+        <f t="shared" si="8"/>
+        <v>3023524.7999999989</v>
+      </c>
+      <c r="X15" s="22"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <f t="shared" si="0"/>
+        <v>51.092619963309673</v>
+      </c>
+      <c r="B16" s="34">
+        <f t="shared" si="1"/>
+        <v>5.1608707033646128</v>
+      </c>
+      <c r="C16" s="34">
+        <f t="shared" si="2"/>
+        <v>9.0315237308880718</v>
+      </c>
+      <c r="D16" s="35">
+        <f t="shared" si="6"/>
+        <v>1884225.6000000015</v>
+      </c>
+      <c r="E16" s="35">
         <v>9.9</v>
       </c>
-      <c r="F16" s="35">
-        <f>($B$2*$J$7)/$B16</f>
-        <v>3.1650920068374795</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="1"/>
+      <c r="F16" s="36">
+        <f t="shared" si="3"/>
+        <v>6.8387912962145982</v>
+      </c>
+      <c r="G16" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D17 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>100</v>
-      </c>
-      <c r="B17" s="22">
-        <f t="shared" si="0"/>
-        <v>10.000000000000011</v>
-      </c>
-      <c r="C17" s="22">
-        <f>$B17*$J$6</f>
-        <v>17.500000000000018</v>
-      </c>
-      <c r="D17" s="22">
-        <v>1314576</v>
-      </c>
-      <c r="E17" s="22">
+      <c r="U16" s="46">
+        <f t="shared" si="5"/>
+        <v>1796587.2000000016</v>
+      </c>
+      <c r="V16" s="35">
+        <f t="shared" si="7"/>
+        <v>1139299.2000000016</v>
+      </c>
+      <c r="W16" s="37">
+        <f t="shared" si="8"/>
+        <v>3111163.1999999988</v>
+      </c>
+      <c r="X16" s="22"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B17" s="34">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000053</v>
+      </c>
+      <c r="C17" s="34">
+        <f t="shared" si="2"/>
+        <v>8.7500000000000089</v>
+      </c>
+      <c r="D17" s="35">
+        <f t="shared" si="6"/>
+        <v>1971864.0000000014</v>
+      </c>
+      <c r="E17" s="35">
         <v>9.9999999999999893</v>
       </c>
-      <c r="F17" s="35">
-        <f>($B$2*$J$7)/$B17</f>
-        <v>3.529415982025407</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="1"/>
+      <c r="F17" s="36">
+        <f t="shared" si="3"/>
+        <v>7.0588235294117574</v>
+      </c>
+      <c r="G17" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D18 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>89.604415459112047</v>
-      </c>
-      <c r="B18" s="22">
-        <f t="shared" si="0"/>
-        <v>8.8717243028823809</v>
-      </c>
-      <c r="C18" s="22">
-        <f>$B18*$J$6</f>
-        <v>15.525517530044166</v>
-      </c>
-      <c r="D18" s="22">
-        <v>1402214.3999999999</v>
-      </c>
-      <c r="E18" s="22">
+      <c r="U17" s="46">
+        <f t="shared" si="5"/>
+        <v>1884225.6000000015</v>
+      </c>
+      <c r="V17" s="35">
+        <f t="shared" si="7"/>
+        <v>1226937.6000000015</v>
+      </c>
+      <c r="W17" s="37">
+        <f t="shared" si="8"/>
+        <v>3198801.5999999987</v>
+      </c>
+      <c r="X17" s="22"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
+        <f t="shared" si="0"/>
+        <v>51.092619963309758</v>
+      </c>
+      <c r="B18" s="34">
+        <f t="shared" si="1"/>
+        <v>5.058675243892055</v>
+      </c>
+      <c r="C18" s="34">
+        <f t="shared" si="2"/>
+        <v>8.8526816768110965</v>
+      </c>
+      <c r="D18" s="35">
+        <f t="shared" si="6"/>
+        <v>2059502.4000000013</v>
+      </c>
+      <c r="E18" s="35">
         <v>10.1</v>
       </c>
-      <c r="F18" s="35">
-        <f>($B$2*$J$7)/$B18</f>
-        <v>3.978275092338837</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="1"/>
+      <c r="F18" s="36">
+        <f t="shared" si="3"/>
+        <v>6.9769486961381135</v>
+      </c>
+      <c r="G18" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D19 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>79.663167846209987</v>
-      </c>
-      <c r="B19" s="22">
-        <f t="shared" si="0"/>
-        <v>7.81011449472647</v>
-      </c>
-      <c r="C19" s="22">
-        <f>$B19*$J$6</f>
-        <v>13.667700365771323</v>
-      </c>
-      <c r="D19" s="22">
-        <v>1489852.8</v>
-      </c>
-      <c r="E19" s="22">
+      <c r="U18" s="46">
+        <f t="shared" si="5"/>
+        <v>1971864.0000000014</v>
+      </c>
+      <c r="V18" s="35">
+        <f t="shared" si="7"/>
+        <v>1314576.0000000014</v>
+      </c>
+      <c r="W18" s="37">
+        <f t="shared" si="8"/>
+        <v>3286439.9999999986</v>
+      </c>
+      <c r="X18" s="22"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <f t="shared" si="0"/>
+        <v>54.322727117870016</v>
+      </c>
+      <c r="B19" s="34">
+        <f t="shared" si="1"/>
+        <v>5.3257575605754921</v>
+      </c>
+      <c r="C19" s="34">
+        <f t="shared" si="2"/>
+        <v>9.3200757310071118</v>
+      </c>
+      <c r="D19" s="35">
+        <f t="shared" si="6"/>
+        <v>2147140.8000000012</v>
+      </c>
+      <c r="E19" s="35">
         <v>10.199999999999999</v>
       </c>
-      <c r="F19" s="35">
-        <f>($B$2*$J$7)/$B19</f>
-        <v>4.5190323194474757</v>
-      </c>
-      <c r="G19" s="12">
-        <f t="shared" si="1"/>
+      <c r="F19" s="36">
+        <f t="shared" si="3"/>
+        <v>6.627060515921233</v>
+      </c>
+      <c r="G19" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D20 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>70.610737385376353</v>
-      </c>
-      <c r="B20" s="22">
-        <f t="shared" si="0"/>
-        <v>6.8554113966384804</v>
-      </c>
-      <c r="C20" s="22">
-        <f>$B20*$J$6</f>
-        <v>11.996969944117341</v>
-      </c>
-      <c r="D20" s="22">
-        <v>1577491.2</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="U19" s="46">
+        <f t="shared" si="5"/>
+        <v>2059502.4000000013</v>
+      </c>
+      <c r="V19" s="35">
+        <f t="shared" si="7"/>
+        <v>1402214.4000000013</v>
+      </c>
+      <c r="W19" s="37">
+        <f t="shared" si="8"/>
+        <v>3374078.3999999985</v>
+      </c>
+      <c r="X19" s="22"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
+        <f t="shared" si="0"/>
+        <v>59.549150281252693</v>
+      </c>
+      <c r="B20" s="34">
+        <f t="shared" si="1"/>
+        <v>5.7814709010924945</v>
+      </c>
+      <c r="C20" s="34">
+        <f t="shared" si="2"/>
+        <v>10.117574076911865</v>
+      </c>
+      <c r="D20" s="35">
+        <f t="shared" si="6"/>
+        <v>2234779.2000000011</v>
+      </c>
+      <c r="E20" s="35">
         <v>10.3</v>
       </c>
-      <c r="F20" s="35">
-        <f>($B$2*$J$7)/$B20</f>
-        <v>5.1483649599147965</v>
-      </c>
-      <c r="G20" s="12">
-        <f t="shared" si="1"/>
+      <c r="F20" s="36">
+        <f t="shared" si="3"/>
+        <v>6.104695197962422</v>
+      </c>
+      <c r="G20" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D21 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>62.842758726130256</v>
-      </c>
-      <c r="B21" s="22">
-        <f t="shared" si="0"/>
-        <v>6.0425729544356015</v>
-      </c>
-      <c r="C21" s="22">
-        <f>$B21*$J$6</f>
-        <v>10.574502670262303</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1665129.6</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="U20" s="46">
+        <f t="shared" si="5"/>
+        <v>2147140.8000000012</v>
+      </c>
+      <c r="V20" s="35">
+        <f t="shared" si="7"/>
+        <v>1489852.8000000012</v>
+      </c>
+      <c r="W20" s="37">
+        <f t="shared" si="8"/>
+        <v>3461716.7999999984</v>
+      </c>
+      <c r="X20" s="22"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
+        <f t="shared" si="0"/>
+        <v>66.543469682057193</v>
+      </c>
+      <c r="B21" s="34">
+        <f t="shared" si="1"/>
+        <v>6.398410546351653</v>
+      </c>
+      <c r="C21" s="34">
+        <f t="shared" si="2"/>
+        <v>11.197218456115392</v>
+      </c>
+      <c r="D21" s="35">
+        <f t="shared" si="6"/>
+        <v>2322417.600000001</v>
+      </c>
+      <c r="E21" s="35">
         <v>10.4</v>
       </c>
-      <c r="F21" s="35">
-        <f>($B$2*$J$7)/$B21</f>
-        <v>5.8409157963655423</v>
-      </c>
-      <c r="G21" s="12">
-        <f t="shared" si="1"/>
+      <c r="F21" s="36">
+        <f t="shared" si="3"/>
+        <v>5.5160758115440691</v>
+      </c>
+      <c r="G21" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D22 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>56.698729810778062</v>
-      </c>
-      <c r="B22" s="22">
-        <f t="shared" si="0"/>
-        <v>5.3998790295979102</v>
-      </c>
-      <c r="C22" s="22">
-        <f>$B22*$J$6</f>
-        <v>9.4497883017963424</v>
-      </c>
-      <c r="D22" s="22">
-        <v>1752768</v>
-      </c>
-      <c r="E22" s="22">
+      <c r="U21" s="46">
+        <f t="shared" si="5"/>
+        <v>2234779.2000000011</v>
+      </c>
+      <c r="V21" s="35">
+        <f t="shared" si="7"/>
+        <v>1577491.2000000011</v>
+      </c>
+      <c r="W21" s="37">
+        <f t="shared" si="8"/>
+        <v>3549355.1999999983</v>
+      </c>
+      <c r="X21" s="22"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
+        <f t="shared" si="0"/>
+        <v>75.000000000000085</v>
+      </c>
+      <c r="B22" s="34">
+        <f t="shared" si="1"/>
+        <v>7.1428571428571512</v>
+      </c>
+      <c r="C22" s="34">
+        <f t="shared" si="2"/>
+        <v>12.500000000000014</v>
+      </c>
+      <c r="D22" s="35">
+        <f t="shared" si="6"/>
+        <v>2410056.0000000009</v>
+      </c>
+      <c r="E22" s="35">
         <v>10.5</v>
       </c>
-      <c r="F22" s="35">
-        <f>($B$2*$J$7)/$B22</f>
-        <v>6.5361019435433922</v>
-      </c>
-      <c r="G22" s="12">
-        <f t="shared" si="1"/>
+      <c r="F22" s="36">
+        <f t="shared" si="3"/>
+        <v>4.9411764705882302</v>
+      </c>
+      <c r="G22" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D23 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>52.447174185242318</v>
-      </c>
-      <c r="B23" s="22">
-        <f t="shared" si="0"/>
-        <v>4.9478466212492753</v>
-      </c>
-      <c r="C23" s="22">
-        <f>$B23*$J$6</f>
-        <v>8.6587315871862316</v>
-      </c>
-      <c r="D23" s="22">
-        <v>1840406.4</v>
-      </c>
-      <c r="E23" s="22">
+      <c r="U22" s="46">
+        <f t="shared" si="5"/>
+        <v>2322417.600000001</v>
+      </c>
+      <c r="V22" s="35">
+        <f t="shared" si="7"/>
+        <v>1665129.600000001</v>
+      </c>
+      <c r="W22" s="37">
+        <f t="shared" si="8"/>
+        <v>3636993.5999999982</v>
+      </c>
+      <c r="X22" s="22"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
+        <f t="shared" si="0"/>
+        <v>84.549150281252736</v>
+      </c>
+      <c r="B23" s="34">
+        <f t="shared" si="1"/>
+        <v>7.9763349321936543</v>
+      </c>
+      <c r="C23" s="34">
+        <f t="shared" si="2"/>
+        <v>13.958586131338896</v>
+      </c>
+      <c r="D23" s="35">
+        <f t="shared" si="6"/>
+        <v>2497694.4000000008</v>
+      </c>
+      <c r="E23" s="35">
         <v>10.6</v>
       </c>
-      <c r="F23" s="35">
-        <f>($B$2*$J$7)/$B23</f>
-        <v>7.1332364404098554</v>
-      </c>
-      <c r="G23" s="12">
-        <f t="shared" si="1"/>
+      <c r="F23" s="36">
+        <f t="shared" si="3"/>
+        <v>4.4248540146686421</v>
+      </c>
+      <c r="G23" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D24 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>50.273905231586326</v>
-      </c>
-      <c r="B24" s="22">
-        <f t="shared" si="0"/>
-        <v>4.6984958160361057</v>
-      </c>
-      <c r="C24" s="22">
-        <f>$B24*$J$6</f>
-        <v>8.2223676780631845</v>
-      </c>
-      <c r="D24" s="22">
-        <v>1928044.8</v>
-      </c>
-      <c r="E24" s="22">
+      <c r="U23" s="46">
+        <f t="shared" si="5"/>
+        <v>2410056.0000000009</v>
+      </c>
+      <c r="V23" s="35">
+        <f t="shared" si="7"/>
+        <v>1752768.0000000009</v>
+      </c>
+      <c r="W23" s="37">
+        <f t="shared" si="8"/>
+        <v>3724631.9999999981</v>
+      </c>
+      <c r="X23" s="22"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <f t="shared" si="0"/>
+        <v>94.773576836617409</v>
+      </c>
+      <c r="B24" s="34">
+        <f t="shared" si="1"/>
+        <v>8.857343629590412</v>
+      </c>
+      <c r="C24" s="34">
+        <f t="shared" si="2"/>
+        <v>15.500351351783221</v>
+      </c>
+      <c r="D24" s="35">
+        <f t="shared" si="6"/>
+        <v>2585332.8000000007</v>
+      </c>
+      <c r="E24" s="35">
         <v>10.7</v>
       </c>
-      <c r="F24" s="35">
-        <f>($B$2*$J$7)/$B24</f>
-        <v>7.5117997763867521</v>
-      </c>
-      <c r="G24" s="12">
-        <f t="shared" si="1"/>
+      <c r="F24" s="36">
+        <f t="shared" si="3"/>
+        <v>3.9847294090689944</v>
+      </c>
+      <c r="G24" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D25 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>50.273905231586326</v>
-      </c>
-      <c r="B25" s="22">
-        <f t="shared" si="0"/>
-        <v>4.6549912251468815</v>
-      </c>
-      <c r="C25" s="22">
-        <f>$B25*$J$6</f>
-        <v>8.146234644007043</v>
-      </c>
-      <c r="D25" s="22">
-        <v>2015683.2</v>
-      </c>
-      <c r="E25" s="22">
+      <c r="U24" s="46">
+        <f t="shared" si="5"/>
+        <v>2497694.4000000008</v>
+      </c>
+      <c r="V24" s="35">
+        <f t="shared" si="7"/>
+        <v>1840406.4000000008</v>
+      </c>
+      <c r="W24" s="37">
+        <f t="shared" si="8"/>
+        <v>3812270.399999998</v>
+      </c>
+      <c r="X24" s="22"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <f t="shared" si="0"/>
+        <v>105.22642316338273</v>
+      </c>
+      <c r="B25" s="34">
+        <f t="shared" si="1"/>
+        <v>9.7431873299428453</v>
+      </c>
+      <c r="C25" s="34">
+        <f t="shared" si="2"/>
+        <v>17.05057782739998</v>
+      </c>
+      <c r="D25" s="35">
+        <f t="shared" si="6"/>
+        <v>2672971.2000000007</v>
+      </c>
+      <c r="E25" s="35">
         <v>10.8</v>
       </c>
-      <c r="F25" s="35">
-        <f>($B$2*$J$7)/$B25</f>
-        <v>7.5820035126146674</v>
-      </c>
-      <c r="G25" s="12">
-        <f t="shared" si="1"/>
+      <c r="F25" s="36">
+        <f t="shared" si="3"/>
+        <v>3.6224406297303395</v>
+      </c>
+      <c r="G25" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D26 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>52.447174185242339</v>
-      </c>
-      <c r="B26" s="22">
-        <f t="shared" si="0"/>
-        <v>4.8116673564442509</v>
-      </c>
-      <c r="C26" s="22">
-        <f>$B26*$J$6</f>
-        <v>8.4204178737774384</v>
-      </c>
-      <c r="D26" s="22">
-        <v>2103321.6000000001</v>
-      </c>
-      <c r="E26" s="22">
+      <c r="U25" s="46">
+        <f t="shared" si="5"/>
+        <v>2585332.8000000007</v>
+      </c>
+      <c r="V25" s="35">
+        <f t="shared" si="7"/>
+        <v>1928044.8000000007</v>
+      </c>
+      <c r="W25" s="37">
+        <f t="shared" si="8"/>
+        <v>3899908.799999998</v>
+      </c>
+      <c r="X25" s="22"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <f t="shared" si="0"/>
+        <v>115.45084971874746</v>
+      </c>
+      <c r="B26" s="34">
+        <f t="shared" si="1"/>
+        <v>10.591821075114446</v>
+      </c>
+      <c r="C26" s="34">
+        <f t="shared" si="2"/>
+        <v>18.535686881450282</v>
+      </c>
+      <c r="D26" s="35">
+        <f t="shared" si="6"/>
+        <v>2760609.6000000006</v>
+      </c>
+      <c r="E26" s="35">
         <v>10.9</v>
       </c>
-      <c r="F26" s="35">
-        <f>($B$2*$J$7)/$B26</f>
-        <v>7.3351204906101319</v>
-      </c>
-      <c r="G26" s="12">
-        <f t="shared" si="1"/>
+      <c r="F26" s="36">
+        <f t="shared" si="3"/>
+        <v>3.3322048585188613</v>
+      </c>
+      <c r="G26" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D27 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>56.698729810778069</v>
-      </c>
-      <c r="B27" s="22">
-        <f t="shared" si="0"/>
-        <v>5.154429982798006</v>
-      </c>
-      <c r="C27" s="22">
-        <f>$B27*$J$6</f>
-        <v>9.0202524698965103</v>
-      </c>
-      <c r="D27" s="22">
-        <v>2190960</v>
-      </c>
-      <c r="E27" s="22">
+      <c r="U26" s="46">
+        <f t="shared" si="5"/>
+        <v>2672971.2000000007</v>
+      </c>
+      <c r="V26" s="35">
+        <f t="shared" si="7"/>
+        <v>2015683.2000000007</v>
+      </c>
+      <c r="W26" s="37">
+        <f t="shared" si="8"/>
+        <v>3987547.1999999979</v>
+      </c>
+      <c r="X26" s="22"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <f t="shared" si="0"/>
+        <v>125.00000000000004</v>
+      </c>
+      <c r="B27" s="34">
+        <f t="shared" si="1"/>
+        <v>11.363636363636367</v>
+      </c>
+      <c r="C27" s="34">
+        <f t="shared" si="2"/>
+        <v>19.88636363636364</v>
+      </c>
+      <c r="D27" s="35">
+        <f t="shared" si="6"/>
+        <v>2848248.0000000005</v>
+      </c>
+      <c r="E27" s="35">
         <v>11</v>
       </c>
-      <c r="F27" s="35">
-        <f>($B$2*$J$7)/$B27</f>
-        <v>6.8473448932359338</v>
-      </c>
-      <c r="G27" s="12">
-        <f t="shared" si="1"/>
+      <c r="F27" s="36">
+        <f t="shared" si="3"/>
+        <v>3.1058823529411757</v>
+      </c>
+      <c r="G27" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D28 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>62.842758726130278</v>
-      </c>
-      <c r="B28" s="22">
-        <f t="shared" si="0"/>
-        <v>5.6615097951468725</v>
-      </c>
-      <c r="C28" s="22">
-        <f>$B28*$J$6</f>
-        <v>9.9076421415070275</v>
-      </c>
-      <c r="D28" s="22">
-        <v>2278598.4</v>
-      </c>
-      <c r="E28" s="22">
+      <c r="U27" s="46">
+        <f t="shared" si="5"/>
+        <v>2760609.6000000006</v>
+      </c>
+      <c r="V27" s="35">
+        <f t="shared" si="7"/>
+        <v>2103321.6000000006</v>
+      </c>
+      <c r="W27" s="37">
+        <f t="shared" si="8"/>
+        <v>4075185.5999999978</v>
+      </c>
+      <c r="X27" s="22"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <f t="shared" si="0"/>
+        <v>133.45653031794296</v>
+      </c>
+      <c r="B28" s="34">
+        <f t="shared" si="1"/>
+        <v>12.023110839454322</v>
+      </c>
+      <c r="C28" s="34">
+        <f t="shared" si="2"/>
+        <v>21.040443969045064</v>
+      </c>
+      <c r="D28" s="35">
+        <f t="shared" si="6"/>
+        <v>2935886.4000000004</v>
+      </c>
+      <c r="E28" s="35">
         <v>11.1</v>
       </c>
-      <c r="F28" s="35">
-        <f>($B$2*$J$7)/$B28</f>
-        <v>6.2340543595824505</v>
-      </c>
-      <c r="G28" s="12">
-        <f t="shared" si="1"/>
+      <c r="F28" s="36">
+        <f t="shared" si="3"/>
+        <v>2.9355229373116778</v>
+      </c>
+      <c r="G28" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D29 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>70.610737385376325</v>
-      </c>
-      <c r="B29" s="22">
-        <f t="shared" si="0"/>
-        <v>6.304530123694315</v>
-      </c>
-      <c r="C29" s="22">
-        <f>$B29*$J$6</f>
-        <v>11.032927716465052</v>
-      </c>
-      <c r="D29" s="22">
-        <v>2366236.7999999998</v>
-      </c>
-      <c r="E29" s="22">
+      <c r="U28" s="46">
+        <f t="shared" si="5"/>
+        <v>2848248.0000000005</v>
+      </c>
+      <c r="V28" s="35">
+        <f t="shared" si="7"/>
+        <v>2190960.0000000005</v>
+      </c>
+      <c r="W28" s="37">
+        <f t="shared" si="8"/>
+        <v>4162823.9999999977</v>
+      </c>
+      <c r="X28" s="22"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <f t="shared" si="0"/>
+        <v>140.45084971874741</v>
+      </c>
+      <c r="B29" s="34">
+        <f t="shared" si="1"/>
+        <v>12.540254439173877</v>
+      </c>
+      <c r="C29" s="34">
+        <f t="shared" si="2"/>
+        <v>21.945445268554284</v>
+      </c>
+      <c r="D29" s="35">
+        <f t="shared" si="6"/>
+        <v>3023524.8000000003</v>
+      </c>
+      <c r="E29" s="35">
         <v>11.2</v>
       </c>
-      <c r="F29" s="35">
-        <f>($B$2*$J$7)/$B29</f>
-        <v>5.5982220923345372</v>
-      </c>
-      <c r="G29" s="12">
-        <f t="shared" si="1"/>
+      <c r="F29" s="36">
+        <f t="shared" si="3"/>
+        <v>2.8144658322725324</v>
+      </c>
+      <c r="G29" s="37">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D30 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>79.663167846209987</v>
-      </c>
-      <c r="B30" s="22">
-        <f t="shared" si="0"/>
-        <v>7.0498378624964584</v>
-      </c>
-      <c r="C30" s="22">
-        <f>$B30*$J$6</f>
-        <v>12.337216259368802</v>
-      </c>
-      <c r="D30" s="22">
+      <c r="U29" s="46">
+        <f t="shared" si="5"/>
+        <v>2935886.4000000004</v>
+      </c>
+      <c r="V29" s="35">
+        <f t="shared" si="7"/>
+        <v>2278598.4000000004</v>
+      </c>
+      <c r="W29" s="37">
+        <f t="shared" si="8"/>
+        <v>4250462.3999999976</v>
+      </c>
+      <c r="X29" s="22"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <f t="shared" si="0"/>
+        <v>145.67727288213004</v>
+      </c>
+      <c r="B30" s="34">
+        <f t="shared" si="1"/>
+        <v>12.891794060365489</v>
+      </c>
+      <c r="C30" s="34">
+        <f t="shared" si="2"/>
+        <v>22.560639605639608</v>
+      </c>
+      <c r="D30" s="35">
+        <f t="shared" si="6"/>
+        <v>3111163.2</v>
+      </c>
+      <c r="E30" s="35">
+        <v>11.3</v>
+      </c>
+      <c r="F30" s="36">
+        <f t="shared" si="3"/>
+        <v>2.7377196286098768</v>
+      </c>
+      <c r="G30" s="37">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="U30" s="46">
+        <f t="shared" si="5"/>
+        <v>3023524.8000000003</v>
+      </c>
+      <c r="V30" s="35">
+        <f t="shared" si="7"/>
+        <v>2366236.8000000003</v>
+      </c>
+      <c r="W30" s="37">
+        <f t="shared" si="8"/>
+        <v>4338100.799999998</v>
+      </c>
+      <c r="X30" s="22"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <f t="shared" si="0"/>
+        <v>148.90738003669028</v>
+      </c>
+      <c r="B31" s="34">
+        <f t="shared" si="1"/>
+        <v>13.062050880411428</v>
+      </c>
+      <c r="C31" s="34">
+        <f t="shared" si="2"/>
+        <v>22.858589040719998</v>
+      </c>
+      <c r="D31" s="35">
+        <f t="shared" si="6"/>
+        <v>3198801.6</v>
+      </c>
+      <c r="E31" s="35">
+        <v>11.4</v>
+      </c>
+      <c r="F31" s="36">
+        <f t="shared" si="3"/>
+        <v>2.7020349231672212</v>
+      </c>
+      <c r="G31" s="37">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
+      <c r="U31" s="46">
+        <f t="shared" si="5"/>
+        <v>3111163.2</v>
+      </c>
+      <c r="V31" s="35">
+        <f t="shared" si="7"/>
         <v>2453875.2000000002</v>
       </c>
-      <c r="E30" s="22">
-        <v>11.3</v>
-      </c>
-      <c r="F30" s="35">
-        <f>($B$2*$J$7)/$B30</f>
-        <v>5.0063789421329883</v>
-      </c>
-      <c r="G30" s="12">
-        <f t="shared" si="1"/>
+      <c r="W31" s="37">
+        <f t="shared" si="8"/>
+        <v>4425739.1999999983</v>
+      </c>
+      <c r="X31" s="22"/>
+    </row>
+    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="38">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="B32" s="39">
+        <f t="shared" si="1"/>
+        <v>13.043478260869565</v>
+      </c>
+      <c r="C32" s="39">
+        <f t="shared" si="2"/>
+        <v>22.826086956521738</v>
+      </c>
+      <c r="D32" s="40">
+        <f t="shared" si="6"/>
+        <v>3286440</v>
+      </c>
+      <c r="E32" s="40">
+        <v>11.5</v>
+      </c>
+      <c r="F32" s="41">
+        <f t="shared" si="3"/>
+        <v>2.7058823529411766</v>
+      </c>
+      <c r="G32" s="42">
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D31 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>89.604415459112047</v>
-      </c>
-      <c r="B31" s="22">
-        <f t="shared" si="0"/>
-        <v>7.860036443781758</v>
-      </c>
-      <c r="C31" s="22">
-        <f>$B31*$J$6</f>
-        <v>13.755063776618076</v>
-      </c>
-      <c r="D31" s="22">
+      <c r="U32" s="46">
+        <f>$U33-87638.4</f>
+        <v>3198801.6</v>
+      </c>
+      <c r="V32" s="35">
+        <f>$V33 - 87638.4</f>
         <v>2541513.6</v>
       </c>
-      <c r="E31" s="22">
-        <v>11.4</v>
-      </c>
-      <c r="F31" s="35">
-        <f>($B$2*$J$7)/$B31</f>
-        <v>4.4903303022438363</v>
-      </c>
-      <c r="G31" s="12">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="13">
-        <f>($J$3 + (($J$3 * $J$2) * SIN((MOD((($D32 - $J$5)/$J$4), 1) * $J$4) * ((2 * PI())/$J$4))))*100</f>
-        <v>100</v>
-      </c>
-      <c r="B32" s="23">
-        <f t="shared" si="0"/>
-        <v>8.695652173913043</v>
-      </c>
-      <c r="C32" s="23">
-        <f>$B32*$J$6</f>
-        <v>15.217391304347824</v>
-      </c>
-      <c r="D32" s="23">
+      <c r="W32" s="37">
+        <f t="shared" si="8"/>
+        <v>4513377.5999999987</v>
+      </c>
+      <c r="X32" s="22"/>
+    </row>
+    <row r="33" spans="9:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U33" s="47">
+        <v>3286440</v>
+      </c>
+      <c r="V33" s="40">
         <v>2629152</v>
       </c>
-      <c r="E32" s="23">
-        <v>11.5</v>
-      </c>
-      <c r="F32" s="36">
-        <f>($B$2*$J$7)/$B32</f>
-        <v>4.0588283793292224</v>
-      </c>
-      <c r="G32" s="14">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
+      <c r="W33" s="42">
+        <f t="shared" si="8"/>
+        <v>4601015.9999999991</v>
+      </c>
+      <c r="X33" s="22"/>
+    </row>
+    <row r="34" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+    </row>
+    <row r="42" spans="9:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I43" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="9:24" x14ac:dyDescent="0.3">
+      <c r="I44" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="9:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I45" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
